--- a/raw_data/20200818_saline/20200818_Sensor2_Test_64.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_64.xlsx
@@ -1,508 +1,924 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8D9989-6E63-43ED-A811-5AEE55EABA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>57074.112767</v>
+        <v>57074.112766999999</v>
       </c>
       <c r="B2" s="1">
-        <v>15.853920</v>
+        <v>15.85392</v>
       </c>
       <c r="C2" s="1">
-        <v>1249.580000</v>
+        <v>1249.58</v>
       </c>
       <c r="D2" s="1">
-        <v>-302.434000</v>
+        <v>-302.43400000000003</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>57084.165184</v>
+        <v>57084.165183999998</v>
       </c>
       <c r="G2" s="1">
-        <v>15.856713</v>
+        <v>15.856712999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>1273.180000</v>
+        <v>1273.18</v>
       </c>
       <c r="I2" s="1">
-        <v>-260.448000</v>
+        <v>-260.44799999999998</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>57094.653586</v>
@@ -511,118 +927,118 @@
         <v>15.859626</v>
       </c>
       <c r="M2" s="1">
-        <v>1307.260000</v>
+        <v>1307.26</v>
       </c>
       <c r="N2" s="1">
-        <v>-200.134000</v>
+        <v>-200.13399999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>57105.383541</v>
+        <v>57105.383541000003</v>
       </c>
       <c r="Q2" s="1">
-        <v>15.862607</v>
+        <v>15.862607000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>1318.680000</v>
+        <v>1318.68</v>
       </c>
       <c r="S2" s="1">
-        <v>-182.913000</v>
+        <v>-182.91300000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>57116.000406</v>
+        <v>57116.000405999999</v>
       </c>
       <c r="V2" s="1">
         <v>15.865556</v>
       </c>
       <c r="W2" s="1">
-        <v>1331.660000</v>
+        <v>1331.66</v>
       </c>
       <c r="X2" s="1">
-        <v>-170.139000</v>
+        <v>-170.13900000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>57126.417416</v>
+        <v>57126.417415999997</v>
       </c>
       <c r="AA2" s="1">
         <v>15.868449</v>
       </c>
       <c r="AB2" s="1">
-        <v>1349.100000</v>
+        <v>1349.1</v>
       </c>
       <c r="AC2" s="1">
-        <v>-168.816000</v>
+        <v>-168.816</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>57136.990603</v>
+        <v>57136.990602999998</v>
       </c>
       <c r="AF2" s="1">
-        <v>15.871386</v>
+        <v>15.871385999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1362.240000</v>
+        <v>1362.24</v>
       </c>
       <c r="AH2" s="1">
-        <v>-179.124000</v>
+        <v>-179.124</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>57147.455380</v>
+        <v>57147.455379999999</v>
       </c>
       <c r="AK2" s="1">
         <v>15.874293</v>
       </c>
       <c r="AL2" s="1">
-        <v>1383.370000</v>
+        <v>1383.37</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.462000</v>
+        <v>-209.46199999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>57158.035856</v>
+        <v>57158.035856000002</v>
       </c>
       <c r="AP2" s="1">
-        <v>15.877232</v>
+        <v>15.877231999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1405.660000</v>
+        <v>1405.66</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.363000</v>
+        <v>-253.363</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>57169.346634</v>
+        <v>57169.346634000001</v>
       </c>
       <c r="AU2" s="1">
         <v>15.880374</v>
       </c>
       <c r="AV2" s="1">
-        <v>1430.940000</v>
+        <v>1430.94</v>
       </c>
       <c r="AW2" s="1">
-        <v>-313.162000</v>
+        <v>-313.16199999999998</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>57180.502451</v>
@@ -631,270 +1047,270 @@
         <v>15.883473</v>
       </c>
       <c r="BA2" s="1">
-        <v>1450.800000</v>
+        <v>1450.8</v>
       </c>
       <c r="BB2" s="1">
-        <v>-365.031000</v>
+        <v>-365.03100000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>57191.472164</v>
+        <v>57191.472163999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>15.886520</v>
+        <v>15.886520000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1538.170000</v>
+        <v>1538.17</v>
       </c>
       <c r="BG2" s="1">
-        <v>-611.157000</v>
+        <v>-611.15700000000004</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>57202.455572</v>
+        <v>57202.455571999999</v>
       </c>
       <c r="BJ2" s="1">
         <v>15.889571</v>
       </c>
       <c r="BK2" s="1">
-        <v>1695.420000</v>
+        <v>1695.42</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1050.540000</v>
+        <v>-1050.54</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>57214.235096</v>
+        <v>57214.235095999997</v>
       </c>
       <c r="BO2" s="1">
-        <v>15.892843</v>
+        <v>15.892842999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1993.880000</v>
+        <v>1993.88</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1808.390000</v>
+        <v>-1808.39</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>57225.080088</v>
+        <v>57225.080088000002</v>
       </c>
       <c r="BT2" s="1">
         <v>15.895856</v>
       </c>
       <c r="BU2" s="1">
-        <v>2384.900000</v>
+        <v>2384.9</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2680.870000</v>
+        <v>-2680.87</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>57235.882989</v>
+        <v>57235.882988999998</v>
       </c>
       <c r="BY2" s="1">
         <v>15.898856</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2871.170000</v>
+        <v>2871.17</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3624.560000</v>
+        <v>-3624.56</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>57246.736945</v>
+        <v>57246.736944999997</v>
       </c>
       <c r="CD2" s="1">
         <v>15.901871</v>
       </c>
       <c r="CE2" s="1">
-        <v>4282.500000</v>
+        <v>4282.5</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5893.660000</v>
+        <v>-5893.66</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>57074.470412</v>
+        <v>57074.470412000002</v>
       </c>
       <c r="B3" s="1">
-        <v>15.854020</v>
+        <v>15.85402</v>
       </c>
       <c r="C3" s="1">
-        <v>1249.740000</v>
+        <v>1249.74</v>
       </c>
       <c r="D3" s="1">
-        <v>-302.784000</v>
+        <v>-302.78399999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>57084.586816</v>
+        <v>57084.586816000003</v>
       </c>
       <c r="G3" s="1">
-        <v>15.856830</v>
+        <v>15.85683</v>
       </c>
       <c r="H3" s="1">
-        <v>1273.200000</v>
+        <v>1273.2</v>
       </c>
       <c r="I3" s="1">
-        <v>-261.791000</v>
+        <v>-261.791</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>57095.049890</v>
+        <v>57095.049890000002</v>
       </c>
       <c r="L3" s="1">
         <v>15.859736</v>
       </c>
       <c r="M3" s="1">
-        <v>1307.100000</v>
+        <v>1307.0999999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-199.915000</v>
+        <v>-199.91499999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>57105.796244</v>
+        <v>57105.796243999997</v>
       </c>
       <c r="Q3" s="1">
-        <v>15.862721</v>
+        <v>15.862721000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1318.640000</v>
+        <v>1318.64</v>
       </c>
       <c r="S3" s="1">
-        <v>-183.056000</v>
+        <v>-183.05600000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>57116.364504</v>
+        <v>57116.364503999997</v>
       </c>
       <c r="V3" s="1">
-        <v>15.865657</v>
+        <v>15.865657000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>1331.560000</v>
+        <v>1331.56</v>
       </c>
       <c r="X3" s="1">
-        <v>-169.920000</v>
+        <v>-169.92</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>57126.793389</v>
+        <v>57126.793388999999</v>
       </c>
       <c r="AA3" s="1">
         <v>15.868554</v>
       </c>
       <c r="AB3" s="1">
-        <v>1348.990000</v>
+        <v>1348.99</v>
       </c>
       <c r="AC3" s="1">
-        <v>-168.842000</v>
+        <v>-168.84200000000001</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>57137.376010</v>
+        <v>57137.37601</v>
       </c>
       <c r="AF3" s="1">
-        <v>15.871493</v>
+        <v>15.871492999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>1362.410000</v>
+        <v>1362.41</v>
       </c>
       <c r="AH3" s="1">
-        <v>-179.120000</v>
+        <v>-179.12</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>57148.189773</v>
+        <v>57148.189772999998</v>
       </c>
       <c r="AK3" s="1">
         <v>15.874497</v>
       </c>
       <c r="AL3" s="1">
-        <v>1383.410000</v>
+        <v>1383.41</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.433000</v>
+        <v>-209.43299999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>57158.778862</v>
+        <v>57158.778861999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>15.877439</v>
+        <v>15.877439000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1405.650000</v>
+        <v>1405.65</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.376000</v>
+        <v>-253.376</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>57169.741476</v>
+        <v>57169.741476000003</v>
       </c>
       <c r="AU3" s="1">
-        <v>15.880484</v>
+        <v>15.880483999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1430.950000</v>
+        <v>1430.95</v>
       </c>
       <c r="AW3" s="1">
-        <v>-313.218000</v>
+        <v>-313.21800000000002</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>57180.867732</v>
+        <v>57180.867731999999</v>
       </c>
       <c r="AZ3" s="1">
-        <v>15.883574</v>
+        <v>15.883573999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1450.770000</v>
+        <v>1450.77</v>
       </c>
       <c r="BB3" s="1">
-        <v>-365.029000</v>
+        <v>-365.029</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>57192.142258</v>
@@ -903,377 +1319,377 @@
         <v>15.886706</v>
       </c>
       <c r="BF3" s="1">
-        <v>1538.160000</v>
+        <v>1538.16</v>
       </c>
       <c r="BG3" s="1">
-        <v>-611.135000</v>
+        <v>-611.13499999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>57203.169846</v>
+        <v>57203.169845999997</v>
       </c>
       <c r="BJ3" s="1">
-        <v>15.889769</v>
+        <v>15.889768999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1695.410000</v>
+        <v>1695.41</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1050.730000</v>
+        <v>-1050.73</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>57214.738500</v>
+        <v>57214.738499999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>15.892983</v>
+        <v>15.892982999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1993.900000</v>
+        <v>1993.9</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1808.240000</v>
+        <v>-1808.24</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>57225.586022</v>
+        <v>57225.586022000003</v>
       </c>
       <c r="BT3" s="1">
         <v>15.895996</v>
       </c>
       <c r="BU3" s="1">
-        <v>2384.850000</v>
+        <v>2384.85</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2681.420000</v>
+        <v>-2681.42</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>57236.350679</v>
+        <v>57236.350679000003</v>
       </c>
       <c r="BY3" s="1">
-        <v>15.898986</v>
+        <v>15.898986000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2870.990000</v>
+        <v>2870.99</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3623.920000</v>
+        <v>-3623.92</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>57247.314282</v>
+        <v>57247.314281999999</v>
       </c>
       <c r="CD3" s="1">
         <v>15.902032</v>
       </c>
       <c r="CE3" s="1">
-        <v>4299.150000</v>
+        <v>4299.1499999999996</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5889.170000</v>
+        <v>-5889.17</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>57074.919757</v>
+        <v>57074.919757000003</v>
       </c>
       <c r="B4" s="1">
         <v>15.854144</v>
       </c>
       <c r="C4" s="1">
-        <v>1249.340000</v>
+        <v>1249.3399999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-302.490000</v>
+        <v>-302.49</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>57084.929552</v>
+        <v>57084.929552000001</v>
       </c>
       <c r="G4" s="1">
         <v>15.856925</v>
       </c>
       <c r="H4" s="1">
-        <v>1273.770000</v>
+        <v>1273.77</v>
       </c>
       <c r="I4" s="1">
-        <v>-260.895000</v>
+        <v>-260.89499999999998</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>57095.396129</v>
+        <v>57095.396129000001</v>
       </c>
       <c r="L4" s="1">
-        <v>15.859832</v>
+        <v>15.859832000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>1307.270000</v>
+        <v>1307.27</v>
       </c>
       <c r="N4" s="1">
-        <v>-200.467000</v>
+        <v>-200.46700000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>57106.144403</v>
+        <v>57106.144402999998</v>
       </c>
       <c r="Q4" s="1">
-        <v>15.862818</v>
+        <v>15.862818000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1318.670000</v>
+        <v>1318.67</v>
       </c>
       <c r="S4" s="1">
-        <v>-182.971000</v>
+        <v>-182.971</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>57116.710214</v>
+        <v>57116.710213999999</v>
       </c>
       <c r="V4" s="1">
         <v>15.865753</v>
       </c>
       <c r="W4" s="1">
-        <v>1331.820000</v>
+        <v>1331.82</v>
       </c>
       <c r="X4" s="1">
-        <v>-170.061000</v>
+        <v>-170.06100000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>57127.487257</v>
+        <v>57127.487257000001</v>
       </c>
       <c r="AA4" s="1">
         <v>15.868746</v>
       </c>
       <c r="AB4" s="1">
-        <v>1348.870000</v>
+        <v>1348.87</v>
       </c>
       <c r="AC4" s="1">
-        <v>-168.795000</v>
+        <v>-168.79499999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>57138.063481</v>
+        <v>57138.063480999997</v>
       </c>
       <c r="AF4" s="1">
         <v>15.871684</v>
       </c>
       <c r="AG4" s="1">
-        <v>1362.230000</v>
+        <v>1362.23</v>
       </c>
       <c r="AH4" s="1">
-        <v>-179.135000</v>
+        <v>-179.13499999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>57148.535521</v>
+        <v>57148.535520999998</v>
       </c>
       <c r="AK4" s="1">
-        <v>15.874593</v>
+        <v>15.874593000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1383.330000</v>
+        <v>1383.33</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.438000</v>
+        <v>-209.43799999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>57159.140445</v>
+        <v>57159.140444999997</v>
       </c>
       <c r="AP4" s="1">
-        <v>15.877539</v>
+        <v>15.877539000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1405.630000</v>
+        <v>1405.63</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.427000</v>
+        <v>-253.42699999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>57170.108480</v>
+        <v>57170.108480000003</v>
       </c>
       <c r="AU4" s="1">
-        <v>15.880586</v>
+        <v>15.880585999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1430.940000</v>
+        <v>1430.94</v>
       </c>
       <c r="AW4" s="1">
-        <v>-313.205000</v>
+        <v>-313.20499999999998</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>57181.544737</v>
+        <v>57181.544736999997</v>
       </c>
       <c r="AZ4" s="1">
-        <v>15.883762</v>
+        <v>15.883762000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1450.820000</v>
+        <v>1450.82</v>
       </c>
       <c r="BB4" s="1">
-        <v>-365.016000</v>
+        <v>-365.01600000000002</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>57192.590641</v>
+        <v>57192.590641000003</v>
       </c>
       <c r="BE4" s="1">
-        <v>15.886831</v>
+        <v>15.886831000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1538.230000</v>
+        <v>1538.23</v>
       </c>
       <c r="BG4" s="1">
-        <v>-611.169000</v>
+        <v>-611.16899999999998</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>57203.646963</v>
+        <v>57203.646962999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>15.889902</v>
+        <v>15.889901999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1695.370000</v>
+        <v>1695.37</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1050.540000</v>
+        <v>-1050.54</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>57215.156659</v>
       </c>
       <c r="BO4" s="1">
-        <v>15.893099</v>
+        <v>15.893098999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1993.970000</v>
+        <v>1993.97</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1808.390000</v>
+        <v>-1808.39</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>57226.002151</v>
+        <v>57226.002151000001</v>
       </c>
       <c r="BT4" s="1">
         <v>15.896112</v>
       </c>
       <c r="BU4" s="1">
-        <v>2384.790000</v>
+        <v>2384.79</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2681.010000</v>
+        <v>-2681.01</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>57236.795591</v>
+        <v>57236.795591000002</v>
       </c>
       <c r="BY4" s="1">
-        <v>15.899110</v>
+        <v>15.89911</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2870.210000</v>
+        <v>2870.21</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3624.750000</v>
+        <v>-3624.75</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>57247.832072</v>
+        <v>57247.832071999997</v>
       </c>
       <c r="CD4" s="1">
-        <v>15.902176</v>
+        <v>15.902176000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>4291.030000</v>
+        <v>4291.03</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5873.620000</v>
+        <v>-5873.62</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>57075.177677</v>
       </c>
       <c r="B5" s="1">
-        <v>15.854216</v>
+        <v>15.854215999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1249.590000</v>
+        <v>1249.5899999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-302.382000</v>
+        <v>-302.38200000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>57085.273743</v>
+        <v>57085.273742999998</v>
       </c>
       <c r="G5" s="1">
-        <v>15.857020</v>
+        <v>15.85702</v>
       </c>
       <c r="H5" s="1">
-        <v>1273.680000</v>
+        <v>1273.68</v>
       </c>
       <c r="I5" s="1">
-        <v>-260.395000</v>
+        <v>-260.39499999999998</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>57095.742305</v>
@@ -1282,88 +1698,88 @@
         <v>15.859928</v>
       </c>
       <c r="M5" s="1">
-        <v>1306.970000</v>
+        <v>1306.97</v>
       </c>
       <c r="N5" s="1">
-        <v>-200.022000</v>
+        <v>-200.02199999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>57106.492389</v>
+        <v>57106.492388999999</v>
       </c>
       <c r="Q5" s="1">
-        <v>15.862915</v>
+        <v>15.862914999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>1318.620000</v>
+        <v>1318.62</v>
       </c>
       <c r="S5" s="1">
-        <v>-182.881000</v>
+        <v>-182.881</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>57117.396645</v>
+        <v>57117.396645000001</v>
       </c>
       <c r="V5" s="1">
-        <v>15.865944</v>
+        <v>15.865944000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1331.660000</v>
+        <v>1331.66</v>
       </c>
       <c r="X5" s="1">
-        <v>-170.111000</v>
+        <v>-170.11099999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>57127.835944</v>
+        <v>57127.835943999999</v>
       </c>
       <c r="AA5" s="1">
         <v>15.868843</v>
       </c>
       <c r="AB5" s="1">
-        <v>1348.920000</v>
+        <v>1348.92</v>
       </c>
       <c r="AC5" s="1">
-        <v>-168.771000</v>
+        <v>-168.77099999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>57138.406255</v>
+        <v>57138.406255000002</v>
       </c>
       <c r="AF5" s="1">
-        <v>15.871780</v>
+        <v>15.871779999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1362.180000</v>
+        <v>1362.18</v>
       </c>
       <c r="AH5" s="1">
-        <v>-178.889000</v>
+        <v>-178.88900000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>57148.883179</v>
+        <v>57148.883178999997</v>
       </c>
       <c r="AK5" s="1">
-        <v>15.874690</v>
+        <v>15.874689999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1383.380000</v>
+        <v>1383.38</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.432000</v>
+        <v>-209.43199999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>57159.823933</v>
@@ -1372,58 +1788,58 @@
         <v>15.877729</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1405.630000</v>
+        <v>1405.63</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.354000</v>
+        <v>-253.35400000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>57170.797423</v>
+        <v>57170.797423000004</v>
       </c>
       <c r="AU5" s="1">
         <v>15.880777</v>
       </c>
       <c r="AV5" s="1">
-        <v>1430.910000</v>
+        <v>1430.91</v>
       </c>
       <c r="AW5" s="1">
-        <v>-313.201000</v>
+        <v>-313.20100000000002</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>57181.966367</v>
+        <v>57181.966367000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>15.883880</v>
+        <v>15.88388</v>
       </c>
       <c r="BA5" s="1">
-        <v>1450.790000</v>
+        <v>1450.79</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.992000</v>
+        <v>-364.99200000000002</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>57192.953250</v>
+        <v>57192.953249999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>15.886931</v>
+        <v>15.886931000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1538.160000</v>
+        <v>1538.16</v>
       </c>
       <c r="BG5" s="1">
-        <v>-611.108000</v>
+        <v>-611.10799999999995</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>57204.022932</v>
@@ -1432,590 +1848,590 @@
         <v>15.890006</v>
       </c>
       <c r="BK5" s="1">
-        <v>1695.490000</v>
+        <v>1695.49</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1050.570000</v>
+        <v>-1050.57</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>57215.551971</v>
+        <v>57215.551971000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>15.893209</v>
+        <v>15.893209000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1993.780000</v>
+        <v>1993.78</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1808.360000</v>
+        <v>-1808.36</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>57226.423750</v>
+        <v>57226.423750000002</v>
       </c>
       <c r="BT5" s="1">
         <v>15.896229</v>
       </c>
       <c r="BU5" s="1">
-        <v>2384.880000</v>
+        <v>2384.88</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2681.200000</v>
+        <v>-2681.2</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>57237.227639</v>
+        <v>57237.227638999997</v>
       </c>
       <c r="BY5" s="1">
-        <v>15.899230</v>
+        <v>15.899229999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2870.170000</v>
+        <v>2870.17</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3624.770000</v>
+        <v>-3624.77</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>57248.349401</v>
+        <v>57248.349400999999</v>
       </c>
       <c r="CD5" s="1">
         <v>15.902319</v>
       </c>
       <c r="CE5" s="1">
-        <v>4276.930000</v>
+        <v>4276.93</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5881.690000</v>
+        <v>-5881.69</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>57075.511980</v>
+        <v>57075.511980000003</v>
       </c>
       <c r="B6" s="1">
-        <v>15.854309</v>
+        <v>15.854309000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1249.540000</v>
+        <v>1249.54</v>
       </c>
       <c r="D6" s="1">
-        <v>-302.529000</v>
+        <v>-302.529</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>57085.617471</v>
+        <v>57085.617470999998</v>
       </c>
       <c r="G6" s="1">
         <v>15.857116</v>
       </c>
       <c r="H6" s="1">
-        <v>1273.260000</v>
+        <v>1273.26</v>
       </c>
       <c r="I6" s="1">
-        <v>-260.921000</v>
+        <v>-260.92099999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>57096.434721</v>
+        <v>57096.434720999998</v>
       </c>
       <c r="L6" s="1">
-        <v>15.860121</v>
+        <v>15.860120999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1307.470000</v>
+        <v>1307.47</v>
       </c>
       <c r="N6" s="1">
-        <v>-200.153000</v>
+        <v>-200.15299999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>57107.188978</v>
+        <v>57107.188977999998</v>
       </c>
       <c r="Q6" s="1">
         <v>15.863108</v>
       </c>
       <c r="R6" s="1">
-        <v>1318.680000</v>
+        <v>1318.68</v>
       </c>
       <c r="S6" s="1">
-        <v>-182.879000</v>
+        <v>-182.87899999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>57117.741860</v>
+        <v>57117.741860000002</v>
       </c>
       <c r="V6" s="1">
-        <v>15.866039</v>
+        <v>15.866039000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1331.720000</v>
+        <v>1331.72</v>
       </c>
       <c r="X6" s="1">
-        <v>-170.256000</v>
+        <v>-170.256</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>57128.185627</v>
+        <v>57128.185626999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>15.868940</v>
+        <v>15.86894</v>
       </c>
       <c r="AB6" s="1">
-        <v>1349.140000</v>
+        <v>1349.14</v>
       </c>
       <c r="AC6" s="1">
-        <v>-168.947000</v>
+        <v>-168.947</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>57138.751402</v>
+        <v>57138.751402000002</v>
       </c>
       <c r="AF6" s="1">
-        <v>15.871875</v>
+        <v>15.871874999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>1362.090000</v>
+        <v>1362.09</v>
       </c>
       <c r="AH6" s="1">
-        <v>-179.169000</v>
+        <v>-179.16900000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>57149.553274</v>
+        <v>57149.553273999998</v>
       </c>
       <c r="AK6" s="1">
         <v>15.874876</v>
       </c>
       <c r="AL6" s="1">
-        <v>1383.370000</v>
+        <v>1383.37</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.431000</v>
+        <v>-209.43100000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>57160.243585</v>
+        <v>57160.243584999997</v>
       </c>
       <c r="AP6" s="1">
-        <v>15.877845</v>
+        <v>15.877845000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1405.660000</v>
+        <v>1405.66</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.396000</v>
+        <v>-253.39599999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>57171.226989</v>
+        <v>57171.226989000003</v>
       </c>
       <c r="AU6" s="1">
         <v>15.880896</v>
       </c>
       <c r="AV6" s="1">
-        <v>1430.920000</v>
+        <v>1430.92</v>
       </c>
       <c r="AW6" s="1">
-        <v>-313.175000</v>
+        <v>-313.17500000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>57182.343791</v>
+        <v>57182.343790999999</v>
       </c>
       <c r="AZ6" s="1">
         <v>15.883984</v>
       </c>
       <c r="BA6" s="1">
-        <v>1450.840000</v>
+        <v>1450.84</v>
       </c>
       <c r="BB6" s="1">
-        <v>-365.009000</v>
+        <v>-365.00900000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>57193.310338</v>
+        <v>57193.310338000003</v>
       </c>
       <c r="BE6" s="1">
         <v>15.887031</v>
       </c>
       <c r="BF6" s="1">
-        <v>1538.160000</v>
+        <v>1538.16</v>
       </c>
       <c r="BG6" s="1">
-        <v>-611.181000</v>
+        <v>-611.18100000000004</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>57204.397410</v>
+        <v>57204.397409999998</v>
       </c>
       <c r="BJ6" s="1">
-        <v>15.890110</v>
+        <v>15.89011</v>
       </c>
       <c r="BK6" s="1">
-        <v>1695.370000</v>
+        <v>1695.37</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1050.690000</v>
+        <v>-1050.69</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>57215.978004</v>
+        <v>57215.978003999997</v>
       </c>
       <c r="BO6" s="1">
-        <v>15.893327</v>
+        <v>15.893326999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1993.620000</v>
+        <v>1993.62</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1808.260000</v>
+        <v>-1808.26</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>57226.852292</v>
+        <v>57226.852292000003</v>
       </c>
       <c r="BT6" s="1">
         <v>15.896348</v>
       </c>
       <c r="BU6" s="1">
-        <v>2384.480000</v>
+        <v>2384.48</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2681.140000</v>
+        <v>-2681.14</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>57237.638295</v>
+        <v>57237.638294999997</v>
       </c>
       <c r="BY6" s="1">
-        <v>15.899344</v>
+        <v>15.899343999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2870.670000</v>
+        <v>2870.67</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3624.940000</v>
+        <v>-3624.94</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>57248.866268</v>
+        <v>57248.866267999998</v>
       </c>
       <c r="CD6" s="1">
-        <v>15.902463</v>
+        <v>15.902462999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>4283.360000</v>
+        <v>4283.3599999999997</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5877.750000</v>
+        <v>-5877.75</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>57076.200428</v>
+        <v>57076.200427999996</v>
       </c>
       <c r="B7" s="1">
-        <v>15.854500</v>
+        <v>15.8545</v>
       </c>
       <c r="C7" s="1">
-        <v>1249.410000</v>
+        <v>1249.4100000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-302.603000</v>
+        <v>-302.60300000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>57086.304926</v>
+        <v>57086.304925999997</v>
       </c>
       <c r="G7" s="1">
         <v>15.857307</v>
       </c>
       <c r="H7" s="1">
-        <v>1273.100000</v>
+        <v>1273.0999999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-261.420000</v>
+        <v>-261.42</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>57096.782945</v>
+        <v>57096.782944999999</v>
       </c>
       <c r="L7" s="1">
         <v>15.860217</v>
       </c>
       <c r="M7" s="1">
-        <v>1307.070000</v>
+        <v>1307.07</v>
       </c>
       <c r="N7" s="1">
-        <v>-200.166000</v>
+        <v>-200.166</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>57107.540145</v>
+        <v>57107.540144999999</v>
       </c>
       <c r="Q7" s="1">
         <v>15.863206</v>
       </c>
       <c r="R7" s="1">
-        <v>1318.730000</v>
+        <v>1318.73</v>
       </c>
       <c r="S7" s="1">
-        <v>-182.936000</v>
+        <v>-182.93600000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>57118.086116</v>
+        <v>57118.086115999999</v>
       </c>
       <c r="V7" s="1">
         <v>15.866135</v>
       </c>
       <c r="W7" s="1">
-        <v>1331.470000</v>
+        <v>1331.47</v>
       </c>
       <c r="X7" s="1">
-        <v>-170.136000</v>
+        <v>-170.136</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>57128.834391</v>
+        <v>57128.834390999997</v>
       </c>
       <c r="AA7" s="1">
         <v>15.869121</v>
       </c>
       <c r="AB7" s="1">
-        <v>1349.070000</v>
+        <v>1349.07</v>
       </c>
       <c r="AC7" s="1">
-        <v>-168.881000</v>
+        <v>-168.881</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>57139.402152</v>
+        <v>57139.402152000002</v>
       </c>
       <c r="AF7" s="1">
-        <v>15.872056</v>
+        <v>15.872056000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>1361.990000</v>
+        <v>1361.99</v>
       </c>
       <c r="AH7" s="1">
-        <v>-178.965000</v>
+        <v>-178.965</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>57149.932747</v>
+        <v>57149.932746999999</v>
       </c>
       <c r="AK7" s="1">
         <v>15.874981</v>
       </c>
       <c r="AL7" s="1">
-        <v>1383.370000</v>
+        <v>1383.37</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.418000</v>
+        <v>-209.41800000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>57160.606124</v>
+        <v>57160.606123999998</v>
       </c>
       <c r="AP7" s="1">
         <v>15.877946</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1405.680000</v>
+        <v>1405.68</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.379000</v>
+        <v>-253.37899999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>57171.595485</v>
+        <v>57171.595484999998</v>
       </c>
       <c r="AU7" s="1">
-        <v>15.880999</v>
+        <v>15.880998999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1430.890000</v>
+        <v>1430.89</v>
       </c>
       <c r="AW7" s="1">
-        <v>-313.183000</v>
+        <v>-313.18299999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>57182.702897</v>
+        <v>57182.702897000003</v>
       </c>
       <c r="AZ7" s="1">
         <v>15.884084</v>
       </c>
       <c r="BA7" s="1">
-        <v>1450.810000</v>
+        <v>1450.81</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.989000</v>
+        <v>-364.98899999999998</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>57193.728464</v>
       </c>
       <c r="BE7" s="1">
-        <v>15.887147</v>
+        <v>15.887147000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1538.170000</v>
+        <v>1538.17</v>
       </c>
       <c r="BG7" s="1">
-        <v>-611.124000</v>
+        <v>-611.12400000000002</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>57204.829425</v>
+        <v>57204.829425000004</v>
       </c>
       <c r="BJ7" s="1">
-        <v>15.890230</v>
+        <v>15.890230000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1695.370000</v>
+        <v>1695.37</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1050.490000</v>
+        <v>-1050.49</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>57216.371827</v>
+        <v>57216.371827000003</v>
       </c>
       <c r="BO7" s="1">
         <v>15.893437</v>
       </c>
       <c r="BP7" s="1">
-        <v>1993.670000</v>
+        <v>1993.67</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1808.380000</v>
+        <v>-1808.38</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>57227.284308</v>
+        <v>57227.284308000002</v>
       </c>
       <c r="BT7" s="1">
         <v>15.896468</v>
       </c>
       <c r="BU7" s="1">
-        <v>2384.480000</v>
+        <v>2384.48</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2681.400000</v>
+        <v>-2681.4</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>57238.072789</v>
+        <v>57238.072788999998</v>
       </c>
       <c r="BY7" s="1">
-        <v>15.899465</v>
+        <v>15.899464999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2871.040000</v>
+        <v>2871.04</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3623.540000</v>
+        <v>-3623.54</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>57249.420758</v>
       </c>
       <c r="CD7" s="1">
-        <v>15.902617</v>
+        <v>15.902616999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>4290.980000</v>
+        <v>4290.9799999999996</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5873.590000</v>
+        <v>-5873.59</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>57076.542704</v>
       </c>
@@ -2023,677 +2439,677 @@
         <v>15.854595</v>
       </c>
       <c r="C8" s="1">
-        <v>1249.470000</v>
+        <v>1249.47</v>
       </c>
       <c r="D8" s="1">
-        <v>-302.436000</v>
+        <v>-302.43599999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>57086.649186</v>
+        <v>57086.649186000002</v>
       </c>
       <c r="G8" s="1">
         <v>15.857403</v>
       </c>
       <c r="H8" s="1">
-        <v>1273.890000</v>
+        <v>1273.8900000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-261.294000</v>
+        <v>-261.29399999999998</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>57097.131640</v>
+        <v>57097.13164</v>
       </c>
       <c r="L8" s="1">
-        <v>15.860314</v>
+        <v>15.860314000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1307.300000</v>
+        <v>1307.3</v>
       </c>
       <c r="N8" s="1">
-        <v>-200.388000</v>
+        <v>-200.38800000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>57107.891809</v>
+        <v>57107.891809000001</v>
       </c>
       <c r="Q8" s="1">
         <v>15.863303</v>
       </c>
       <c r="R8" s="1">
-        <v>1318.610000</v>
+        <v>1318.61</v>
       </c>
       <c r="S8" s="1">
-        <v>-182.993000</v>
+        <v>-182.99299999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>57118.753736</v>
+        <v>57118.753735999999</v>
       </c>
       <c r="V8" s="1">
-        <v>15.866320</v>
+        <v>15.86632</v>
       </c>
       <c r="W8" s="1">
-        <v>1331.520000</v>
+        <v>1331.52</v>
       </c>
       <c r="X8" s="1">
-        <v>-170.173000</v>
+        <v>-170.173</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>57129.232181</v>
+        <v>57129.232180999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>15.869231</v>
+        <v>15.869230999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1349.170000</v>
+        <v>1349.17</v>
       </c>
       <c r="AC8" s="1">
-        <v>-168.936000</v>
+        <v>-168.93600000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>57139.786056</v>
+        <v>57139.786055999997</v>
       </c>
       <c r="AF8" s="1">
         <v>15.872163</v>
       </c>
       <c r="AG8" s="1">
-        <v>1362.320000</v>
+        <v>1362.32</v>
       </c>
       <c r="AH8" s="1">
-        <v>-179.056000</v>
+        <v>-179.05600000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>57150.281403</v>
+        <v>57150.281403000001</v>
       </c>
       <c r="AK8" s="1">
         <v>15.875078</v>
       </c>
       <c r="AL8" s="1">
-        <v>1383.360000</v>
+        <v>1383.36</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.447000</v>
+        <v>-209.447</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>57160.967211</v>
+        <v>57160.967211000003</v>
       </c>
       <c r="AP8" s="1">
-        <v>15.878046</v>
+        <v>15.878045999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1405.650000</v>
+        <v>1405.65</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.381000</v>
+        <v>-253.381</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>57171.961038</v>
+        <v>57171.961038000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>15.881100</v>
+        <v>15.8811</v>
       </c>
       <c r="AV8" s="1">
-        <v>1430.960000</v>
+        <v>1430.96</v>
       </c>
       <c r="AW8" s="1">
-        <v>-313.174000</v>
+        <v>-313.17399999999998</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>57183.125024</v>
+        <v>57183.125024000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>15.884201</v>
+        <v>15.884200999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1450.810000</v>
+        <v>1450.81</v>
       </c>
       <c r="BB8" s="1">
-        <v>-365.001000</v>
+        <v>-365.00099999999998</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>57194.034036</v>
+        <v>57194.034035999997</v>
       </c>
       <c r="BE8" s="1">
-        <v>15.887232</v>
+        <v>15.887231999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1538.130000</v>
+        <v>1538.13</v>
       </c>
       <c r="BG8" s="1">
-        <v>-611.093000</v>
+        <v>-611.09299999999996</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>57205.176624</v>
       </c>
       <c r="BJ8" s="1">
-        <v>15.890327</v>
+        <v>15.890326999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1695.530000</v>
+        <v>1695.53</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1050.690000</v>
+        <v>-1050.69</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>57216.795411</v>
+        <v>57216.795410999999</v>
       </c>
       <c r="BO8" s="1">
         <v>15.893554</v>
       </c>
       <c r="BP8" s="1">
-        <v>1993.620000</v>
+        <v>1993.62</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1808.370000</v>
+        <v>-1808.37</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>57227.694995</v>
+        <v>57227.694994999998</v>
       </c>
       <c r="BT8" s="1">
         <v>15.896582</v>
       </c>
       <c r="BU8" s="1">
-        <v>2384.360000</v>
+        <v>2384.36</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2680.900000</v>
+        <v>-2680.9</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>57238.498852</v>
+        <v>57238.498851999997</v>
       </c>
       <c r="BY8" s="1">
         <v>15.899583</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2870.150000</v>
+        <v>2870.15</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3623.660000</v>
+        <v>-3623.66</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>57249.946517</v>
+        <v>57249.946516999997</v>
       </c>
       <c r="CD8" s="1">
         <v>15.902763</v>
       </c>
       <c r="CE8" s="1">
-        <v>4276.300000</v>
+        <v>4276.3</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5880.830000</v>
+        <v>-5880.83</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>57076.882922</v>
+        <v>57076.882921999997</v>
       </c>
       <c r="B9" s="1">
-        <v>15.854690</v>
+        <v>15.85469</v>
       </c>
       <c r="C9" s="1">
-        <v>1249.310000</v>
+        <v>1249.31</v>
       </c>
       <c r="D9" s="1">
-        <v>-302.560000</v>
+        <v>-302.56</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>57086.997341</v>
+        <v>57086.997341000002</v>
       </c>
       <c r="G9" s="1">
-        <v>15.857499</v>
+        <v>15.857499000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1274.290000</v>
+        <v>1274.29</v>
       </c>
       <c r="I9" s="1">
-        <v>-260.838000</v>
+        <v>-260.83800000000002</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>57097.788304</v>
+        <v>57097.788304000002</v>
       </c>
       <c r="L9" s="1">
-        <v>15.860497</v>
+        <v>15.860497000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>1307.250000</v>
+        <v>1307.25</v>
       </c>
       <c r="N9" s="1">
-        <v>-200.309000</v>
+        <v>-200.309</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>57108.587200</v>
+        <v>57108.587200000002</v>
       </c>
       <c r="Q9" s="1">
         <v>15.863496</v>
       </c>
       <c r="R9" s="1">
-        <v>1318.600000</v>
+        <v>1318.6</v>
       </c>
       <c r="S9" s="1">
-        <v>-182.962000</v>
+        <v>-182.96199999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>57119.115811</v>
+        <v>57119.115811000003</v>
       </c>
       <c r="V9" s="1">
-        <v>15.866421</v>
+        <v>15.866421000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1331.580000</v>
+        <v>1331.58</v>
       </c>
       <c r="X9" s="1">
-        <v>-169.923000</v>
+        <v>-169.923</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>57129.579415</v>
       </c>
       <c r="AA9" s="1">
-        <v>15.869328</v>
+        <v>15.869327999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1349.160000</v>
+        <v>1349.16</v>
       </c>
       <c r="AC9" s="1">
-        <v>-168.895000</v>
+        <v>-168.89500000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>57140.131767</v>
+        <v>57140.131766999999</v>
       </c>
       <c r="AF9" s="1">
         <v>15.872259</v>
       </c>
       <c r="AG9" s="1">
-        <v>1362.010000</v>
+        <v>1362.01</v>
       </c>
       <c r="AH9" s="1">
-        <v>-179.247000</v>
+        <v>-179.24700000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>57150.627150</v>
+        <v>57150.62715</v>
       </c>
       <c r="AK9" s="1">
-        <v>15.875174</v>
+        <v>15.875173999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>1383.400000</v>
+        <v>1383.4</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.448000</v>
+        <v>-209.44800000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>57161.398271</v>
+        <v>57161.398270999998</v>
       </c>
       <c r="AP9" s="1">
         <v>15.878166</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1405.620000</v>
+        <v>1405.62</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.392000</v>
+        <v>-253.392</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>57172.393548</v>
       </c>
       <c r="AU9" s="1">
-        <v>15.881220</v>
+        <v>15.881220000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1430.920000</v>
+        <v>1430.92</v>
       </c>
       <c r="AW9" s="1">
-        <v>-313.164000</v>
+        <v>-313.16399999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>57183.421136</v>
+        <v>57183.421135999997</v>
       </c>
       <c r="AZ9" s="1">
-        <v>15.884284</v>
+        <v>15.884283999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1450.800000</v>
+        <v>1450.8</v>
       </c>
       <c r="BB9" s="1">
-        <v>-365.058000</v>
+        <v>-365.05799999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>57194.392607</v>
+        <v>57194.392607000002</v>
       </c>
       <c r="BE9" s="1">
         <v>15.887331</v>
       </c>
       <c r="BF9" s="1">
-        <v>1538.160000</v>
+        <v>1538.16</v>
       </c>
       <c r="BG9" s="1">
-        <v>-611.148000</v>
+        <v>-611.14800000000002</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>57205.553584</v>
+        <v>57205.553584000001</v>
       </c>
       <c r="BJ9" s="1">
-        <v>15.890432</v>
+        <v>15.890432000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1695.270000</v>
+        <v>1695.27</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1050.470000</v>
+        <v>-1050.47</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>57217.191253</v>
+        <v>57217.191252999997</v>
       </c>
       <c r="BO9" s="1">
-        <v>15.893664</v>
+        <v>15.893663999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1993.570000</v>
+        <v>1993.57</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1808.300000</v>
+        <v>-1808.3</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>57228.127046</v>
+        <v>57228.127046000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>15.896702</v>
+        <v>15.896701999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>2384.160000</v>
+        <v>2384.16</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2681.080000</v>
+        <v>-2681.08</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>57238.925908</v>
+        <v>57238.925907999997</v>
       </c>
       <c r="BY9" s="1">
         <v>15.899702</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2870.450000</v>
+        <v>2870.45</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3624.590000</v>
+        <v>-3624.59</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>57250.467814</v>
+        <v>57250.467814000003</v>
       </c>
       <c r="CD9" s="1">
         <v>15.902908</v>
       </c>
       <c r="CE9" s="1">
-        <v>4294.460000</v>
+        <v>4294.46</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5890.770000</v>
+        <v>-5890.77</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>57077.548090</v>
+        <v>57077.548089999997</v>
       </c>
       <c r="B10" s="1">
-        <v>15.854874</v>
+        <v>15.854874000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1249.550000</v>
+        <v>1249.55</v>
       </c>
       <c r="D10" s="1">
-        <v>-302.359000</v>
+        <v>-302.35899999999998</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>57087.658044</v>
+        <v>57087.658044000003</v>
       </c>
       <c r="G10" s="1">
         <v>15.857683</v>
       </c>
       <c r="H10" s="1">
-        <v>1273.640000</v>
+        <v>1273.6400000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-261.922000</v>
+        <v>-261.92200000000003</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>57098.163774</v>
+        <v>57098.163774000001</v>
       </c>
       <c r="L10" s="1">
-        <v>15.860601</v>
+        <v>15.860601000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1306.950000</v>
+        <v>1306.95</v>
       </c>
       <c r="N10" s="1">
-        <v>-200.125000</v>
+        <v>-200.125</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>57108.930432</v>
+        <v>57108.930432000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>15.863592</v>
+        <v>15.863592000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1318.650000</v>
+        <v>1318.65</v>
       </c>
       <c r="S10" s="1">
-        <v>-182.923000</v>
+        <v>-182.923</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>57119.460994</v>
+        <v>57119.460994000001</v>
       </c>
       <c r="V10" s="1">
         <v>15.866517</v>
       </c>
       <c r="W10" s="1">
-        <v>1331.750000</v>
+        <v>1331.75</v>
       </c>
       <c r="X10" s="1">
-        <v>-170.329000</v>
+        <v>-170.32900000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>57129.928565</v>
+        <v>57129.928565000002</v>
       </c>
       <c r="AA10" s="1">
         <v>15.869425</v>
       </c>
       <c r="AB10" s="1">
-        <v>1349.010000</v>
+        <v>1349.01</v>
       </c>
       <c r="AC10" s="1">
-        <v>-168.839000</v>
+        <v>-168.839</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>57140.476487</v>
       </c>
       <c r="AF10" s="1">
-        <v>15.872355</v>
+        <v>15.872355000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1362.020000</v>
+        <v>1362.02</v>
       </c>
       <c r="AH10" s="1">
-        <v>-179.095000</v>
+        <v>-179.095</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>57151.055656</v>
+        <v>57151.055655999997</v>
       </c>
       <c r="AK10" s="1">
-        <v>15.875293</v>
+        <v>15.875292999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>1383.370000</v>
+        <v>1383.37</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.432000</v>
+        <v>-209.43199999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>57161.688922</v>
+        <v>57161.688922000001</v>
       </c>
       <c r="AP10" s="1">
         <v>15.878247</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1405.670000</v>
+        <v>1405.67</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.373000</v>
+        <v>-253.37299999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>57172.688668</v>
+        <v>57172.688668000003</v>
       </c>
       <c r="AU10" s="1">
         <v>15.881302</v>
       </c>
       <c r="AV10" s="1">
-        <v>1430.910000</v>
+        <v>1430.91</v>
       </c>
       <c r="AW10" s="1">
-        <v>-313.179000</v>
+        <v>-313.17899999999997</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>57183.779709</v>
+        <v>57183.779709000002</v>
       </c>
       <c r="AZ10" s="1">
         <v>15.884383</v>
       </c>
       <c r="BA10" s="1">
-        <v>1450.790000</v>
+        <v>1450.79</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.991000</v>
+        <v>-364.99099999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>57194.754686</v>
@@ -2702,120 +3118,120 @@
         <v>15.887432</v>
       </c>
       <c r="BF10" s="1">
-        <v>1538.140000</v>
+        <v>1538.14</v>
       </c>
       <c r="BG10" s="1">
-        <v>-611.102000</v>
+        <v>-611.10199999999998</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>57205.925584</v>
+        <v>57205.925583999997</v>
       </c>
       <c r="BJ10" s="1">
         <v>15.890535</v>
       </c>
       <c r="BK10" s="1">
-        <v>1695.470000</v>
+        <v>1695.47</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1050.550000</v>
+        <v>-1050.55</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>57217.615296</v>
+        <v>57217.615296000004</v>
       </c>
       <c r="BO10" s="1">
         <v>15.893782</v>
       </c>
       <c r="BP10" s="1">
-        <v>1993.480000</v>
+        <v>1993.48</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1808.270000</v>
+        <v>-1808.27</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>57228.554066</v>
+        <v>57228.554065999997</v>
       </c>
       <c r="BT10" s="1">
-        <v>15.896821</v>
+        <v>15.896820999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>2384.050000</v>
+        <v>2384.0500000000002</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2680.910000</v>
+        <v>-2680.91</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>57239.365365</v>
+        <v>57239.365364999998</v>
       </c>
       <c r="BY10" s="1">
-        <v>15.899824</v>
+        <v>15.899824000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2870.450000</v>
+        <v>2870.45</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3624.350000</v>
+        <v>-3624.35</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>57251.005013</v>
+        <v>57251.005013000002</v>
       </c>
       <c r="CD10" s="1">
         <v>15.903057</v>
       </c>
       <c r="CE10" s="1">
-        <v>4285.120000</v>
+        <v>4285.12</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5874.750000</v>
+        <v>-5874.75</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>57077.908154</v>
+        <v>57077.908153999997</v>
       </c>
       <c r="B11" s="1">
         <v>15.854974</v>
       </c>
       <c r="C11" s="1">
-        <v>1249.840000</v>
+        <v>1249.8399999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-302.350000</v>
+        <v>-302.35000000000002</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>57088.031005</v>
+        <v>57088.031004999997</v>
       </c>
       <c r="G11" s="1">
-        <v>15.857786</v>
+        <v>15.857786000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>1273.710000</v>
+        <v>1273.71</v>
       </c>
       <c r="I11" s="1">
-        <v>-260.615000</v>
+        <v>-260.61500000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>57098.507502</v>
@@ -2824,28 +3240,28 @@
         <v>15.860697</v>
       </c>
       <c r="M11" s="1">
-        <v>1307.010000</v>
+        <v>1307.01</v>
       </c>
       <c r="N11" s="1">
-        <v>-200.289000</v>
+        <v>-200.28899999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>57109.283089</v>
+        <v>57109.283088999997</v>
       </c>
       <c r="Q11" s="1">
-        <v>15.863690</v>
+        <v>15.86369</v>
       </c>
       <c r="R11" s="1">
-        <v>1318.740000</v>
+        <v>1318.74</v>
       </c>
       <c r="S11" s="1">
-        <v>-182.878000</v>
+        <v>-182.87799999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>57119.804225</v>
@@ -2854,43 +3270,43 @@
         <v>15.866612</v>
       </c>
       <c r="W11" s="1">
-        <v>1331.590000</v>
+        <v>1331.59</v>
       </c>
       <c r="X11" s="1">
-        <v>-170.231000</v>
+        <v>-170.23099999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>57130.358099</v>
+        <v>57130.358098999997</v>
       </c>
       <c r="AA11" s="1">
-        <v>15.869544</v>
+        <v>15.869543999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1348.990000</v>
+        <v>1348.99</v>
       </c>
       <c r="AC11" s="1">
-        <v>-168.813000</v>
+        <v>-168.81299999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>57140.894615</v>
+        <v>57140.894614999997</v>
       </c>
       <c r="AF11" s="1">
-        <v>15.872471</v>
+        <v>15.872471000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1362.110000</v>
+        <v>1362.11</v>
       </c>
       <c r="AH11" s="1">
-        <v>-179.097000</v>
+        <v>-179.09700000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>57151.325481</v>
@@ -2899,73 +3315,73 @@
         <v>15.875368</v>
       </c>
       <c r="AL11" s="1">
-        <v>1383.350000</v>
+        <v>1383.35</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.412000</v>
+        <v>-209.41200000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>57162.045515</v>
+        <v>57162.045514999998</v>
       </c>
       <c r="AP11" s="1">
-        <v>15.878346</v>
+        <v>15.878346000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1405.690000</v>
+        <v>1405.69</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.390000</v>
+        <v>-253.39</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>57173.050283</v>
+        <v>57173.050282999997</v>
       </c>
       <c r="AU11" s="1">
-        <v>15.881403</v>
+        <v>15.881403000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1430.930000</v>
+        <v>1430.93</v>
       </c>
       <c r="AW11" s="1">
-        <v>-313.168000</v>
+        <v>-313.16800000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>57184.139309</v>
+        <v>57184.139308999998</v>
       </c>
       <c r="AZ11" s="1">
-        <v>15.884483</v>
+        <v>15.884482999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1450.780000</v>
+        <v>1450.78</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.996000</v>
+        <v>-364.99599999999998</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>57195.475902</v>
+        <v>57195.475901999998</v>
       </c>
       <c r="BE11" s="1">
         <v>15.887632</v>
       </c>
       <c r="BF11" s="1">
-        <v>1538.100000</v>
+        <v>1538.1</v>
       </c>
       <c r="BG11" s="1">
-        <v>-611.107000</v>
+        <v>-611.10699999999997</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>57206.679999</v>
@@ -2974,467 +3390,467 @@
         <v>15.890744</v>
       </c>
       <c r="BK11" s="1">
-        <v>1695.270000</v>
+        <v>1695.27</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1050.440000</v>
+        <v>-1050.44</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>57218.007633</v>
+        <v>57218.007633000001</v>
       </c>
       <c r="BO11" s="1">
         <v>15.893891</v>
       </c>
       <c r="BP11" s="1">
-        <v>1993.620000</v>
+        <v>1993.62</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1808.250000</v>
+        <v>-1808.25</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>57228.965745</v>
+        <v>57228.965745000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>15.896935</v>
+        <v>15.896934999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>2383.890000</v>
+        <v>2383.89</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2680.920000</v>
+        <v>-2680.92</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>57239.783491</v>
+        <v>57239.783491000002</v>
       </c>
       <c r="BY11" s="1">
-        <v>15.899940</v>
+        <v>15.899940000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2870.510000</v>
+        <v>2870.51</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3624.040000</v>
+        <v>-3624.04</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>57251.855619</v>
+        <v>57251.855619000002</v>
       </c>
       <c r="CD11" s="1">
         <v>15.903293</v>
       </c>
       <c r="CE11" s="1">
-        <v>4295.940000</v>
+        <v>4295.9399999999996</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5888.350000</v>
+        <v>-5888.35</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>57078.250890</v>
+        <v>57078.250890000003</v>
       </c>
       <c r="B12" s="1">
-        <v>15.855070</v>
+        <v>15.85507</v>
       </c>
       <c r="C12" s="1">
-        <v>1249.410000</v>
+        <v>1249.4100000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-302.363000</v>
+        <v>-302.363</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>57088.374271</v>
+        <v>57088.374271000001</v>
       </c>
       <c r="G12" s="1">
         <v>15.857882</v>
       </c>
       <c r="H12" s="1">
-        <v>1273.440000</v>
+        <v>1273.44</v>
       </c>
       <c r="I12" s="1">
-        <v>-260.976000</v>
+        <v>-260.976</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>57098.859165</v>
+        <v>57098.859165000002</v>
       </c>
       <c r="L12" s="1">
         <v>15.860794</v>
       </c>
       <c r="M12" s="1">
-        <v>1307.350000</v>
+        <v>1307.3499999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-199.915000</v>
+        <v>-199.91499999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>57109.716593</v>
+        <v>57109.716592999997</v>
       </c>
       <c r="Q12" s="1">
-        <v>15.863810</v>
+        <v>15.863810000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>1318.680000</v>
+        <v>1318.68</v>
       </c>
       <c r="S12" s="1">
-        <v>-182.865000</v>
+        <v>-182.86500000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>57120.227841</v>
       </c>
       <c r="V12" s="1">
-        <v>15.866730</v>
+        <v>15.86673</v>
       </c>
       <c r="W12" s="1">
-        <v>1331.710000</v>
+        <v>1331.71</v>
       </c>
       <c r="X12" s="1">
-        <v>-170.339000</v>
+        <v>-170.339</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>57130.633411</v>
+        <v>57130.633411000003</v>
       </c>
       <c r="AA12" s="1">
-        <v>15.869620</v>
+        <v>15.869619999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>1348.970000</v>
+        <v>1348.97</v>
       </c>
       <c r="AC12" s="1">
-        <v>-168.920000</v>
+        <v>-168.92</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>57141.174358</v>
+        <v>57141.174357999997</v>
       </c>
       <c r="AF12" s="1">
         <v>15.872548</v>
       </c>
       <c r="AG12" s="1">
-        <v>1362.030000</v>
+        <v>1362.03</v>
       </c>
       <c r="AH12" s="1">
-        <v>-179.248000</v>
+        <v>-179.24799999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>57151.676153</v>
       </c>
       <c r="AK12" s="1">
-        <v>15.875466</v>
+        <v>15.875465999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1383.370000</v>
+        <v>1383.37</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.420000</v>
+        <v>-209.42</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>57162.408587</v>
+        <v>57162.408586999998</v>
       </c>
       <c r="AP12" s="1">
         <v>15.878447</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1405.670000</v>
+        <v>1405.67</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.365000</v>
+        <v>-253.36500000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>57173.415803</v>
+        <v>57173.415803000004</v>
       </c>
       <c r="AU12" s="1">
         <v>15.881504</v>
       </c>
       <c r="AV12" s="1">
-        <v>1430.920000</v>
+        <v>1430.92</v>
       </c>
       <c r="AW12" s="1">
-        <v>-313.193000</v>
+        <v>-313.19299999999998</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>57184.859995</v>
+        <v>57184.859994999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>15.884683</v>
+        <v>15.884683000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1450.800000</v>
+        <v>1450.8</v>
       </c>
       <c r="BB12" s="1">
-        <v>-365.012000</v>
+        <v>-365.012</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>57195.839934</v>
+        <v>57195.839934000003</v>
       </c>
       <c r="BE12" s="1">
-        <v>15.887733</v>
+        <v>15.887733000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1538.150000</v>
+        <v>1538.15</v>
       </c>
       <c r="BG12" s="1">
-        <v>-611.074000</v>
+        <v>-611.07399999999996</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>57207.052990</v>
+        <v>57207.052989999996</v>
       </c>
       <c r="BJ12" s="1">
         <v>15.890848</v>
       </c>
       <c r="BK12" s="1">
-        <v>1695.510000</v>
+        <v>1695.51</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1050.520000</v>
+        <v>-1050.52</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>57218.429233</v>
+        <v>57218.429233000003</v>
       </c>
       <c r="BO12" s="1">
-        <v>15.894008</v>
+        <v>15.894007999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1993.590000</v>
+        <v>1993.59</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1808.210000</v>
+        <v>-1808.21</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>57229.724128</v>
+        <v>57229.724128000002</v>
       </c>
       <c r="BT12" s="1">
-        <v>15.897146</v>
+        <v>15.897145999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>2383.520000</v>
+        <v>2383.52</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2680.380000</v>
+        <v>-2680.38</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>57240.241300</v>
+        <v>57240.241300000002</v>
       </c>
       <c r="BY12" s="1">
         <v>15.900067</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2870.790000</v>
+        <v>2870.79</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3623.500000</v>
+        <v>-3623.5</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>57252.084275</v>
+        <v>57252.084275000001</v>
       </c>
       <c r="CD12" s="1">
         <v>15.903357</v>
       </c>
       <c r="CE12" s="1">
-        <v>4293.720000</v>
+        <v>4293.72</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5887.740000</v>
+        <v>-5887.74</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>57078.594120</v>
+        <v>57078.594120000002</v>
       </c>
       <c r="B13" s="1">
         <v>15.855165</v>
       </c>
       <c r="C13" s="1">
-        <v>1249.790000</v>
+        <v>1249.79</v>
       </c>
       <c r="D13" s="1">
-        <v>-302.244000</v>
+        <v>-302.24400000000003</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>57088.721963</v>
+        <v>57088.721963000004</v>
       </c>
       <c r="G13" s="1">
-        <v>15.857978</v>
+        <v>15.857977999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1273.480000</v>
+        <v>1273.48</v>
       </c>
       <c r="I13" s="1">
-        <v>-261.163000</v>
+        <v>-261.16300000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>57099.286253</v>
+        <v>57099.286252999998</v>
       </c>
       <c r="L13" s="1">
         <v>15.860913</v>
       </c>
       <c r="M13" s="1">
-        <v>1307.240000</v>
+        <v>1307.24</v>
       </c>
       <c r="N13" s="1">
-        <v>-200.148000</v>
+        <v>-200.148</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>57109.989390</v>
+        <v>57109.989390000002</v>
       </c>
       <c r="Q13" s="1">
-        <v>15.863886</v>
+        <v>15.863886000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1318.680000</v>
+        <v>1318.68</v>
       </c>
       <c r="S13" s="1">
-        <v>-182.959000</v>
+        <v>-182.959</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>57120.498128</v>
+        <v>57120.498127999999</v>
       </c>
       <c r="V13" s="1">
-        <v>15.866805</v>
+        <v>15.866804999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>1331.540000</v>
+        <v>1331.54</v>
       </c>
       <c r="X13" s="1">
-        <v>-169.964000</v>
+        <v>-169.964</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>57130.983592</v>
+        <v>57130.983591999997</v>
       </c>
       <c r="AA13" s="1">
-        <v>15.869718</v>
+        <v>15.869718000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1348.990000</v>
+        <v>1348.99</v>
       </c>
       <c r="AC13" s="1">
-        <v>-168.836000</v>
+        <v>-168.83600000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>57141.518582</v>
+        <v>57141.518581999997</v>
       </c>
       <c r="AF13" s="1">
-        <v>15.872644</v>
+        <v>15.872643999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>1362.160000</v>
+        <v>1362.16</v>
       </c>
       <c r="AH13" s="1">
-        <v>-179.296000</v>
+        <v>-179.29599999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>57152.022887</v>
+        <v>57152.022886999999</v>
       </c>
       <c r="AK13" s="1">
         <v>15.875562</v>
       </c>
       <c r="AL13" s="1">
-        <v>1383.370000</v>
+        <v>1383.37</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.411000</v>
+        <v>-209.411</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>57163.131257</v>
+        <v>57163.131257000001</v>
       </c>
       <c r="AP13" s="1">
         <v>15.878648</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1405.640000</v>
+        <v>1405.64</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.371000</v>
+        <v>-253.37100000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>57174.145419</v>
@@ -3443,58 +3859,58 @@
         <v>15.881707</v>
       </c>
       <c r="AV13" s="1">
-        <v>1430.940000</v>
+        <v>1430.94</v>
       </c>
       <c r="AW13" s="1">
-        <v>-313.181000</v>
+        <v>-313.18099999999998</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>57185.238443</v>
+        <v>57185.238443000002</v>
       </c>
       <c r="AZ13" s="1">
         <v>15.884788</v>
       </c>
       <c r="BA13" s="1">
-        <v>1450.780000</v>
+        <v>1450.78</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.982000</v>
+        <v>-364.98200000000003</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>57196.203996</v>
+        <v>57196.203995999997</v>
       </c>
       <c r="BE13" s="1">
         <v>15.887834</v>
       </c>
       <c r="BF13" s="1">
-        <v>1538.140000</v>
+        <v>1538.14</v>
       </c>
       <c r="BG13" s="1">
-        <v>-611.061000</v>
+        <v>-611.06100000000004</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>57207.750089</v>
+        <v>57207.750089000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>15.891042</v>
+        <v>15.891042000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1695.270000</v>
+        <v>1695.27</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1050.470000</v>
+        <v>-1050.47</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>57219.145977</v>
@@ -3503,392 +3919,392 @@
         <v>15.894207</v>
       </c>
       <c r="BP13" s="1">
-        <v>1993.640000</v>
+        <v>1993.64</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1808.070000</v>
+        <v>-1808.07</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>57229.835233</v>
+        <v>57229.835232999998</v>
       </c>
       <c r="BT13" s="1">
         <v>15.897176</v>
       </c>
       <c r="BU13" s="1">
-        <v>2383.550000</v>
+        <v>2383.5500000000002</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2680.730000</v>
+        <v>-2680.73</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>57240.651988</v>
+        <v>57240.651987999998</v>
       </c>
       <c r="BY13" s="1">
         <v>15.900181</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2869.840000</v>
+        <v>2869.84</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3623.570000</v>
+        <v>-3623.57</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>57252.600612</v>
+        <v>57252.600612000002</v>
       </c>
       <c r="CD13" s="1">
-        <v>15.903500</v>
+        <v>15.903499999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>4288.360000</v>
+        <v>4288.3599999999997</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5875.480000</v>
+        <v>-5875.48</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>57079.017207</v>
+        <v>57079.017206999997</v>
       </c>
       <c r="B14" s="1">
         <v>15.855283</v>
       </c>
       <c r="C14" s="1">
-        <v>1249.550000</v>
+        <v>1249.55</v>
       </c>
       <c r="D14" s="1">
-        <v>-302.315000</v>
+        <v>-302.315</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>57089.147003</v>
+        <v>57089.147002999998</v>
       </c>
       <c r="G14" s="1">
         <v>15.858096</v>
       </c>
       <c r="H14" s="1">
-        <v>1272.900000</v>
+        <v>1272.9000000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-261.163000</v>
+        <v>-261.16300000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>57099.780732</v>
+        <v>57099.780731999999</v>
       </c>
       <c r="L14" s="1">
-        <v>15.861050</v>
+        <v>15.861050000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>1306.850000</v>
+        <v>1306.8499999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-200.251000</v>
+        <v>-200.251</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>57110.339598</v>
+        <v>57110.339597999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>15.863983</v>
+        <v>15.863982999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1318.650000</v>
+        <v>1318.65</v>
       </c>
       <c r="S14" s="1">
-        <v>-183.025000</v>
+        <v>-183.02500000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>57120.841080</v>
+        <v>57120.841079999998</v>
       </c>
       <c r="V14" s="1">
-        <v>15.866900</v>
+        <v>15.866899999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>1331.530000</v>
+        <v>1331.53</v>
       </c>
       <c r="X14" s="1">
-        <v>-170.210000</v>
+        <v>-170.21</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>57131.331252</v>
+        <v>57131.331252000004</v>
       </c>
       <c r="AA14" s="1">
         <v>15.869814</v>
       </c>
       <c r="AB14" s="1">
-        <v>1349.030000</v>
+        <v>1349.03</v>
       </c>
       <c r="AC14" s="1">
-        <v>-168.871000</v>
+        <v>-168.87100000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>57142.117253</v>
+        <v>57142.117252999997</v>
       </c>
       <c r="AF14" s="1">
-        <v>15.872810</v>
+        <v>15.872809999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1362.280000</v>
+        <v>1362.28</v>
       </c>
       <c r="AH14" s="1">
-        <v>-179.344000</v>
+        <v>-179.34399999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>57152.720749</v>
       </c>
       <c r="AK14" s="1">
-        <v>15.875756</v>
+        <v>15.875756000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>1383.400000</v>
+        <v>1383.4</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.403000</v>
+        <v>-209.40299999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>57163.517640</v>
+        <v>57163.517639999998</v>
       </c>
       <c r="AP14" s="1">
         <v>15.878755</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1405.660000</v>
+        <v>1405.66</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.386000</v>
+        <v>-253.386</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>57174.565561</v>
+        <v>57174.565561000003</v>
       </c>
       <c r="AU14" s="1">
         <v>15.881824</v>
       </c>
       <c r="AV14" s="1">
-        <v>1430.860000</v>
+        <v>1430.86</v>
       </c>
       <c r="AW14" s="1">
-        <v>-313.157000</v>
+        <v>-313.15699999999998</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>57185.616395</v>
+        <v>57185.616394999997</v>
       </c>
       <c r="AZ14" s="1">
         <v>15.884893</v>
       </c>
       <c r="BA14" s="1">
-        <v>1450.810000</v>
+        <v>1450.81</v>
       </c>
       <c r="BB14" s="1">
-        <v>-365.032000</v>
+        <v>-365.03199999999998</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>57196.874624</v>
+        <v>57196.874623999996</v>
       </c>
       <c r="BE14" s="1">
         <v>15.888021</v>
       </c>
       <c r="BF14" s="1">
-        <v>1538.090000</v>
+        <v>1538.09</v>
       </c>
       <c r="BG14" s="1">
-        <v>-611.043000</v>
+        <v>-611.04300000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>57208.179406</v>
+        <v>57208.179406000003</v>
       </c>
       <c r="BJ14" s="1">
         <v>15.891161</v>
       </c>
       <c r="BK14" s="1">
-        <v>1695.460000</v>
+        <v>1695.46</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1050.510000</v>
+        <v>-1050.51</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>57219.258079</v>
+        <v>57219.258078999999</v>
       </c>
       <c r="BO14" s="1">
         <v>15.894238</v>
       </c>
       <c r="BP14" s="1">
-        <v>1993.440000</v>
+        <v>1993.44</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1808.100000</v>
+        <v>-1808.1</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>57230.266751</v>
+        <v>57230.266751000003</v>
       </c>
       <c r="BT14" s="1">
-        <v>15.897296</v>
+        <v>15.897296000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>2383.220000</v>
+        <v>2383.2199999999998</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2680.610000</v>
+        <v>-2680.61</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>57241.088497</v>
+        <v>57241.088496999997</v>
       </c>
       <c r="BY14" s="1">
         <v>15.900302</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2870.670000</v>
+        <v>2870.67</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3624.520000</v>
+        <v>-3624.52</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>57253.122930</v>
+        <v>57253.122929999998</v>
       </c>
       <c r="CD14" s="1">
-        <v>15.903645</v>
+        <v>15.903644999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>4275.700000</v>
+        <v>4275.7</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5882.950000</v>
+        <v>-5882.95</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>57079.292983</v>
+        <v>57079.292982999999</v>
       </c>
       <c r="B15" s="1">
         <v>15.855359</v>
       </c>
       <c r="C15" s="1">
-        <v>1249.380000</v>
+        <v>1249.3800000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-302.382000</v>
+        <v>-302.38200000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>57089.414874</v>
+        <v>57089.414874000002</v>
       </c>
       <c r="G15" s="1">
         <v>15.858171</v>
       </c>
       <c r="H15" s="1">
-        <v>1273.500000</v>
+        <v>1273.5</v>
       </c>
       <c r="I15" s="1">
-        <v>-260.871000</v>
+        <v>-260.87099999999998</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>57100.133883</v>
+        <v>57100.133883000002</v>
       </c>
       <c r="L15" s="1">
         <v>15.861148</v>
       </c>
       <c r="M15" s="1">
-        <v>1307.320000</v>
+        <v>1307.32</v>
       </c>
       <c r="N15" s="1">
-        <v>-200.282000</v>
+        <v>-200.28200000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>57110.688290</v>
+        <v>57110.688289999998</v>
       </c>
       <c r="Q15" s="1">
-        <v>15.864080</v>
+        <v>15.86408</v>
       </c>
       <c r="R15" s="1">
-        <v>1318.660000</v>
+        <v>1318.66</v>
       </c>
       <c r="S15" s="1">
-        <v>-182.900000</v>
+        <v>-182.9</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>57121.180624</v>
+        <v>57121.180624000001</v>
       </c>
       <c r="V15" s="1">
-        <v>15.866995</v>
+        <v>15.866994999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1331.850000</v>
+        <v>1331.85</v>
       </c>
       <c r="X15" s="1">
-        <v>-170.105000</v>
+        <v>-170.10499999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>57132.029121</v>
@@ -3897,240 +4313,240 @@
         <v>15.870008</v>
       </c>
       <c r="AB15" s="1">
-        <v>1348.940000</v>
+        <v>1348.94</v>
       </c>
       <c r="AC15" s="1">
-        <v>-168.717000</v>
+        <v>-168.71700000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>57142.548275</v>
+        <v>57142.548275000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>15.872930</v>
+        <v>15.87293</v>
       </c>
       <c r="AG15" s="1">
-        <v>1362.200000</v>
+        <v>1362.2</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.846000</v>
+        <v>-178.846</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>57153.063957</v>
+        <v>57153.063956999998</v>
       </c>
       <c r="AK15" s="1">
-        <v>15.875851</v>
+        <v>15.875851000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>1383.370000</v>
+        <v>1383.37</v>
       </c>
       <c r="AM15" s="1">
-        <v>-209.393000</v>
+        <v>-209.393</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>57163.896088</v>
+        <v>57163.896088000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>15.878860</v>
+        <v>15.87886</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1405.670000</v>
+        <v>1405.67</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.344000</v>
+        <v>-253.34399999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>57175.236413</v>
+        <v>57175.236412999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>15.882010</v>
+        <v>15.882009999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1430.940000</v>
+        <v>1430.94</v>
       </c>
       <c r="AW15" s="1">
-        <v>-313.149000</v>
+        <v>-313.149</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>57186.288475</v>
+        <v>57186.288475000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>15.885080</v>
+        <v>15.88508</v>
       </c>
       <c r="BA15" s="1">
-        <v>1450.790000</v>
+        <v>1450.79</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.961000</v>
+        <v>-364.96100000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>57197.309083</v>
       </c>
       <c r="BE15" s="1">
-        <v>15.888141</v>
+        <v>15.888140999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1538.140000</v>
+        <v>1538.14</v>
       </c>
       <c r="BG15" s="1">
-        <v>-611.095000</v>
+        <v>-611.09500000000003</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>57208.554380</v>
+        <v>57208.554380000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>15.891265</v>
+        <v>15.891265000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1695.240000</v>
+        <v>1695.24</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1050.450000</v>
+        <v>-1050.45</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>57219.671709</v>
+        <v>57219.671709000002</v>
       </c>
       <c r="BO15" s="1">
-        <v>15.894353</v>
+        <v>15.894353000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1993.640000</v>
+        <v>1993.64</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1808.190000</v>
+        <v>-1808.19</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>57230.677482</v>
+        <v>57230.677481999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>15.897410</v>
+        <v>15.897410000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>2382.980000</v>
+        <v>2382.98</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2680.060000</v>
+        <v>-2680.06</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>57241.519489</v>
+        <v>57241.519488999998</v>
       </c>
       <c r="BY15" s="1">
-        <v>15.900422</v>
+        <v>15.900422000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2870.450000</v>
+        <v>2870.45</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3623.630000</v>
+        <v>-3623.63</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>57253.639266</v>
+        <v>57253.639265999998</v>
       </c>
       <c r="CD15" s="1">
         <v>15.903789</v>
       </c>
       <c r="CE15" s="1">
-        <v>4284.710000</v>
+        <v>4284.71</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5896.240000</v>
+        <v>-5896.24</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>57079.633240</v>
+        <v>57079.633240000003</v>
       </c>
       <c r="B16" s="1">
         <v>15.855454</v>
       </c>
       <c r="C16" s="1">
-        <v>1249.490000</v>
+        <v>1249.49</v>
       </c>
       <c r="D16" s="1">
-        <v>-302.550000</v>
+        <v>-302.55</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>57089.762538</v>
+        <v>57089.762538000003</v>
       </c>
       <c r="G16" s="1">
         <v>15.858267</v>
       </c>
       <c r="H16" s="1">
-        <v>1272.660000</v>
+        <v>1272.6600000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-261.442000</v>
+        <v>-261.44200000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>57100.480628</v>
+        <v>57100.480627999998</v>
       </c>
       <c r="L16" s="1">
         <v>15.861245</v>
       </c>
       <c r="M16" s="1">
-        <v>1306.960000</v>
+        <v>1306.96</v>
       </c>
       <c r="N16" s="1">
-        <v>-200.124000</v>
+        <v>-200.124</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>57111.382156</v>
       </c>
       <c r="Q16" s="1">
-        <v>15.864273</v>
+        <v>15.864273000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1318.630000</v>
+        <v>1318.63</v>
       </c>
       <c r="S16" s="1">
-        <v>-182.779000</v>
+        <v>-182.779</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>57121.868575</v>
@@ -4139,315 +4555,315 @@
         <v>15.867186</v>
       </c>
       <c r="W16" s="1">
-        <v>1331.830000</v>
+        <v>1331.83</v>
       </c>
       <c r="X16" s="1">
-        <v>-170.431000</v>
+        <v>-170.43100000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>57132.379329</v>
+        <v>57132.379329000003</v>
       </c>
       <c r="AA16" s="1">
-        <v>15.870105</v>
+        <v>15.870105000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>1348.960000</v>
+        <v>1348.96</v>
       </c>
       <c r="AC16" s="1">
-        <v>-168.848000</v>
+        <v>-168.84800000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>57142.890051</v>
+        <v>57142.890051000002</v>
       </c>
       <c r="AF16" s="1">
         <v>15.873025</v>
       </c>
       <c r="AG16" s="1">
-        <v>1362.120000</v>
+        <v>1362.12</v>
       </c>
       <c r="AH16" s="1">
-        <v>-179.140000</v>
+        <v>-179.14</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>57153.418101</v>
+        <v>57153.418101000003</v>
       </c>
       <c r="AK16" s="1">
         <v>15.875949</v>
       </c>
       <c r="AL16" s="1">
-        <v>1383.420000</v>
+        <v>1383.42</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.429000</v>
+        <v>-209.429</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>57164.564235</v>
+        <v>57164.564234999998</v>
       </c>
       <c r="AP16" s="1">
-        <v>15.879046</v>
+        <v>15.879046000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1405.660000</v>
+        <v>1405.66</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.342000</v>
+        <v>-253.34200000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>57175.646312</v>
+        <v>57175.646311999997</v>
       </c>
       <c r="AU16" s="1">
-        <v>15.882124</v>
+        <v>15.882123999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1430.920000</v>
+        <v>1430.92</v>
       </c>
       <c r="AW16" s="1">
-        <v>-313.194000</v>
+        <v>-313.19400000000002</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>57186.696187</v>
+        <v>57186.696187000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>15.885193</v>
+        <v>15.885192999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1450.820000</v>
+        <v>1450.82</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.980000</v>
+        <v>-364.98</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>57197.672652</v>
+        <v>57197.672652000001</v>
       </c>
       <c r="BE16" s="1">
         <v>15.888242</v>
       </c>
       <c r="BF16" s="1">
-        <v>1538.150000</v>
+        <v>1538.15</v>
       </c>
       <c r="BG16" s="1">
-        <v>-611.082000</v>
+        <v>-611.08199999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>57208.928861</v>
       </c>
       <c r="BJ16" s="1">
-        <v>15.891369</v>
+        <v>15.891368999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1695.450000</v>
+        <v>1695.45</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1050.500000</v>
+        <v>-1050.5</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>57220.068015</v>
+        <v>57220.068014999997</v>
       </c>
       <c r="BO16" s="1">
         <v>15.894463</v>
       </c>
       <c r="BP16" s="1">
-        <v>1993.520000</v>
+        <v>1993.52</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1808.130000</v>
+        <v>-1808.13</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>57231.106515</v>
+        <v>57231.106514999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>15.897530</v>
+        <v>15.89753</v>
       </c>
       <c r="BU16" s="1">
-        <v>2382.760000</v>
+        <v>2382.7600000000002</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2680.290000</v>
+        <v>-2680.29</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>57241.931168</v>
+        <v>57241.931168000003</v>
       </c>
       <c r="BY16" s="1">
-        <v>15.900536</v>
+        <v>15.900536000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2869.950000</v>
+        <v>2869.95</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3623.640000</v>
+        <v>-3623.64</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>57254.161520</v>
+        <v>57254.161520000001</v>
       </c>
       <c r="CD16" s="1">
         <v>15.903934</v>
       </c>
       <c r="CE16" s="1">
-        <v>4277.730000</v>
+        <v>4277.7299999999996</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5890.570000</v>
+        <v>-5890.57</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>57079.975510</v>
+        <v>57079.975509999997</v>
       </c>
       <c r="B17" s="1">
         <v>15.855549</v>
       </c>
       <c r="C17" s="1">
-        <v>1249.630000</v>
+        <v>1249.6300000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-302.507000</v>
+        <v>-302.50700000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>57090.110232</v>
+        <v>57090.110231999999</v>
       </c>
       <c r="G17" s="1">
         <v>15.858364</v>
       </c>
       <c r="H17" s="1">
-        <v>1274.290000</v>
+        <v>1274.29</v>
       </c>
       <c r="I17" s="1">
-        <v>-261.058000</v>
+        <v>-261.05799999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>57101.172506</v>
+        <v>57101.172506000003</v>
       </c>
       <c r="L17" s="1">
         <v>15.861437</v>
       </c>
       <c r="M17" s="1">
-        <v>1307.450000</v>
+        <v>1307.45</v>
       </c>
       <c r="N17" s="1">
-        <v>-200.148000</v>
+        <v>-200.148</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>57111.733324</v>
+        <v>57111.733324000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>15.864370</v>
+        <v>15.864369999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>1318.700000</v>
+        <v>1318.7</v>
       </c>
       <c r="S17" s="1">
-        <v>-182.873000</v>
+        <v>-182.87299999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>57122.216270</v>
+        <v>57122.216269999997</v>
       </c>
       <c r="V17" s="1">
-        <v>15.867282</v>
+        <v>15.867281999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>1331.640000</v>
+        <v>1331.64</v>
       </c>
       <c r="X17" s="1">
-        <v>-170.104000</v>
+        <v>-170.10400000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>57132.725040</v>
+        <v>57132.725039999998</v>
       </c>
       <c r="AA17" s="1">
         <v>15.870201</v>
       </c>
       <c r="AB17" s="1">
-        <v>1349.050000</v>
+        <v>1349.05</v>
       </c>
       <c r="AC17" s="1">
-        <v>-168.767000</v>
+        <v>-168.767</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>57143.547716</v>
+        <v>57143.547716000001</v>
       </c>
       <c r="AF17" s="1">
         <v>15.873208</v>
       </c>
       <c r="AG17" s="1">
-        <v>1362.190000</v>
+        <v>1362.19</v>
       </c>
       <c r="AH17" s="1">
-        <v>-179.245000</v>
+        <v>-179.245</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>57154.095637</v>
+        <v>57154.095636999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>15.876138</v>
+        <v>15.876137999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>1383.390000</v>
+        <v>1383.39</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.390000</v>
+        <v>-209.39</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>57164.977862</v>
@@ -4456,58 +4872,58 @@
         <v>15.879161</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1405.640000</v>
+        <v>1405.64</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.323000</v>
+        <v>-253.32300000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>57176.027767</v>
       </c>
       <c r="AU17" s="1">
-        <v>15.882230</v>
+        <v>15.88223</v>
       </c>
       <c r="AV17" s="1">
-        <v>1430.940000</v>
+        <v>1430.94</v>
       </c>
       <c r="AW17" s="1">
-        <v>-313.188000</v>
+        <v>-313.18799999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>57187.074137</v>
+        <v>57187.074137000003</v>
       </c>
       <c r="AZ17" s="1">
-        <v>15.885298</v>
+        <v>15.885298000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1450.770000</v>
+        <v>1450.77</v>
       </c>
       <c r="BB17" s="1">
-        <v>-365.020000</v>
+        <v>-365.02</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>57198.031258</v>
+        <v>57198.031258000003</v>
       </c>
       <c r="BE17" s="1">
         <v>15.888342</v>
       </c>
       <c r="BF17" s="1">
-        <v>1538.160000</v>
+        <v>1538.16</v>
       </c>
       <c r="BG17" s="1">
-        <v>-611.065000</v>
+        <v>-611.06500000000005</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>57209.361867</v>
@@ -4516,467 +4932,467 @@
         <v>15.891489</v>
       </c>
       <c r="BK17" s="1">
-        <v>1695.220000</v>
+        <v>1695.22</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1050.530000</v>
+        <v>-1050.53</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>57220.498060</v>
+        <v>57220.498059999998</v>
       </c>
       <c r="BO17" s="1">
-        <v>15.894583</v>
+        <v>15.894583000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1993.630000</v>
+        <v>1993.63</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1808.010000</v>
+        <v>-1808.01</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>57231.534030</v>
+        <v>57231.534030000003</v>
       </c>
       <c r="BT17" s="1">
         <v>15.897648</v>
       </c>
       <c r="BU17" s="1">
-        <v>2382.680000</v>
+        <v>2382.6799999999998</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2679.880000</v>
+        <v>-2679.88</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>57242.356736</v>
+        <v>57242.356736000002</v>
       </c>
       <c r="BY17" s="1">
         <v>15.900655</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2870.300000</v>
+        <v>2870.3</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3624.050000</v>
+        <v>-3624.05</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>57254.711114</v>
+        <v>57254.711113999998</v>
       </c>
       <c r="CD17" s="1">
         <v>15.904086</v>
       </c>
       <c r="CE17" s="1">
-        <v>4275.610000</v>
+        <v>4275.6099999999997</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5879.710000</v>
+        <v>-5879.71</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>57080.659493</v>
+        <v>57080.659492999999</v>
       </c>
       <c r="B18" s="1">
         <v>15.855739</v>
       </c>
       <c r="C18" s="1">
-        <v>1249.550000</v>
+        <v>1249.55</v>
       </c>
       <c r="D18" s="1">
-        <v>-302.547000</v>
+        <v>-302.54700000000003</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>57090.801656</v>
+        <v>57090.801656000003</v>
       </c>
       <c r="G18" s="1">
         <v>15.858556</v>
       </c>
       <c r="H18" s="1">
-        <v>1273.250000</v>
+        <v>1273.25</v>
       </c>
       <c r="I18" s="1">
-        <v>-261.212000</v>
+        <v>-261.21199999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>57101.516730</v>
+        <v>57101.516730000003</v>
       </c>
       <c r="L18" s="1">
         <v>15.861532</v>
       </c>
       <c r="M18" s="1">
-        <v>1307.140000</v>
+        <v>1307.1400000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>-200.283000</v>
+        <v>-200.28299999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>57112.081547</v>
+        <v>57112.081547000002</v>
       </c>
       <c r="Q18" s="1">
-        <v>15.864467</v>
+        <v>15.864466999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>1318.780000</v>
+        <v>1318.78</v>
       </c>
       <c r="S18" s="1">
-        <v>-182.890000</v>
+        <v>-182.89</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>57122.553551</v>
+        <v>57122.553550999997</v>
       </c>
       <c r="V18" s="1">
         <v>15.867376</v>
       </c>
       <c r="W18" s="1">
-        <v>1331.730000</v>
+        <v>1331.73</v>
       </c>
       <c r="X18" s="1">
-        <v>-170.230000</v>
+        <v>-170.23</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>57133.395601</v>
+        <v>57133.395600999997</v>
       </c>
       <c r="AA18" s="1">
         <v>15.870388</v>
       </c>
       <c r="AB18" s="1">
-        <v>1349.090000</v>
+        <v>1349.09</v>
       </c>
       <c r="AC18" s="1">
-        <v>-168.909000</v>
+        <v>-168.90899999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>57143.922493</v>
+        <v>57143.922492999998</v>
       </c>
       <c r="AF18" s="1">
         <v>15.873312</v>
       </c>
       <c r="AG18" s="1">
-        <v>1362.070000</v>
+        <v>1362.07</v>
       </c>
       <c r="AH18" s="1">
-        <v>-179.219000</v>
+        <v>-179.21899999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>57154.461684</v>
+        <v>57154.461684000002</v>
       </c>
       <c r="AK18" s="1">
         <v>15.876239</v>
       </c>
       <c r="AL18" s="1">
-        <v>1383.370000</v>
+        <v>1383.37</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.407000</v>
+        <v>-209.40700000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>57165.367750</v>
+        <v>57165.367749999998</v>
       </c>
       <c r="AP18" s="1">
-        <v>15.879269</v>
+        <v>15.879269000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1405.670000</v>
+        <v>1405.67</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.335000</v>
+        <v>-253.33500000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>57176.394807</v>
+        <v>57176.394806999997</v>
       </c>
       <c r="AU18" s="1">
         <v>15.882332</v>
       </c>
       <c r="AV18" s="1">
-        <v>1430.970000</v>
+        <v>1430.97</v>
       </c>
       <c r="AW18" s="1">
-        <v>-313.194000</v>
+        <v>-313.19400000000002</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>57187.455078</v>
+        <v>57187.455077999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>15.885404</v>
+        <v>15.885403999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1450.790000</v>
+        <v>1450.79</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.954000</v>
+        <v>-364.95400000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>57198.456825</v>
+        <v>57198.456825000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>15.888460</v>
+        <v>15.88846</v>
       </c>
       <c r="BF18" s="1">
-        <v>1538.130000</v>
+        <v>1538.13</v>
       </c>
       <c r="BG18" s="1">
-        <v>-611.048000</v>
+        <v>-611.048</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>57209.686784</v>
+        <v>57209.686783999998</v>
       </c>
       <c r="BJ18" s="1">
-        <v>15.891580</v>
+        <v>15.891579999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1695.260000</v>
+        <v>1695.26</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1050.310000</v>
+        <v>-1050.31</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>57220.889388</v>
+        <v>57220.889388000003</v>
       </c>
       <c r="BO18" s="1">
         <v>15.894691</v>
       </c>
       <c r="BP18" s="1">
-        <v>1993.560000</v>
+        <v>1993.56</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1807.880000</v>
+        <v>-1807.88</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>57231.945215</v>
       </c>
       <c r="BT18" s="1">
-        <v>15.897763</v>
+        <v>15.897762999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>2382.190000</v>
+        <v>2382.19</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2679.830000</v>
+        <v>-2679.83</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>57242.771887</v>
+        <v>57242.771887000003</v>
       </c>
       <c r="BY18" s="1">
-        <v>15.900770</v>
+        <v>15.90077</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2869.640000</v>
+        <v>2869.64</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3623.290000</v>
+        <v>-3623.29</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>57255.241312</v>
+        <v>57255.241311999998</v>
       </c>
       <c r="CD18" s="1">
-        <v>15.904234</v>
+        <v>15.904234000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>4281.480000</v>
+        <v>4281.4799999999996</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5895.180000</v>
+        <v>-5895.18</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>57081.000213</v>
+        <v>57081.000212999999</v>
       </c>
       <c r="B19" s="1">
-        <v>15.855833</v>
+        <v>15.855833000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1249.460000</v>
+        <v>1249.46</v>
       </c>
       <c r="D19" s="1">
-        <v>-302.613000</v>
+        <v>-302.613</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>57091.147899</v>
+        <v>57091.147899000003</v>
       </c>
       <c r="G19" s="1">
-        <v>15.858652</v>
+        <v>15.858651999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1273.150000</v>
+        <v>1273.1500000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-261.921000</v>
+        <v>-261.92099999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>57101.863433</v>
+        <v>57101.863432999999</v>
       </c>
       <c r="L19" s="1">
-        <v>15.861629</v>
+        <v>15.861629000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1307.310000</v>
+        <v>1307.31</v>
       </c>
       <c r="N19" s="1">
-        <v>-200.557000</v>
+        <v>-200.55699999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>57112.735280</v>
+        <v>57112.735280000001</v>
       </c>
       <c r="Q19" s="1">
         <v>15.864649</v>
       </c>
       <c r="R19" s="1">
-        <v>1318.590000</v>
+        <v>1318.59</v>
       </c>
       <c r="S19" s="1">
-        <v>-182.933000</v>
+        <v>-182.93299999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>57123.217198</v>
+        <v>57123.217197999998</v>
       </c>
       <c r="V19" s="1">
-        <v>15.867560</v>
+        <v>15.867559999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>1331.720000</v>
+        <v>1331.72</v>
       </c>
       <c r="X19" s="1">
-        <v>-170.223000</v>
+        <v>-170.22300000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>57133.771568</v>
+        <v>57133.771567999996</v>
       </c>
       <c r="AA19" s="1">
         <v>15.870492</v>
       </c>
       <c r="AB19" s="1">
-        <v>1349.030000</v>
+        <v>1349.03</v>
       </c>
       <c r="AC19" s="1">
-        <v>-168.760000</v>
+        <v>-168.76</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>57144.265427</v>
+        <v>57144.265426999998</v>
       </c>
       <c r="AF19" s="1">
         <v>15.873407</v>
       </c>
       <c r="AG19" s="1">
-        <v>1362.150000</v>
+        <v>1362.15</v>
       </c>
       <c r="AH19" s="1">
-        <v>-179.151000</v>
+        <v>-179.15100000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>57154.814873</v>
+        <v>57154.814873000003</v>
       </c>
       <c r="AK19" s="1">
-        <v>15.876337</v>
+        <v>15.876336999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1383.360000</v>
+        <v>1383.36</v>
       </c>
       <c r="AM19" s="1">
-        <v>-209.425000</v>
+        <v>-209.42500000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>57165.726325</v>
+        <v>57165.726325000003</v>
       </c>
       <c r="AP19" s="1">
-        <v>15.879368</v>
+        <v>15.879367999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1405.650000</v>
+        <v>1405.65</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.332000</v>
+        <v>-253.33199999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>57176.811942</v>
@@ -4985,28 +5401,28 @@
         <v>15.882448</v>
       </c>
       <c r="AV19" s="1">
-        <v>1430.960000</v>
+        <v>1430.96</v>
       </c>
       <c r="AW19" s="1">
-        <v>-313.123000</v>
+        <v>-313.12299999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>57187.880669</v>
+        <v>57187.880668999998</v>
       </c>
       <c r="AZ19" s="1">
         <v>15.885522</v>
       </c>
       <c r="BA19" s="1">
-        <v>1450.810000</v>
+        <v>1450.81</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.965000</v>
+        <v>-364.96499999999997</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>57198.754922</v>
@@ -5015,13 +5431,13 @@
         <v>15.888543</v>
       </c>
       <c r="BF19" s="1">
-        <v>1538.160000</v>
+        <v>1538.16</v>
       </c>
       <c r="BG19" s="1">
-        <v>-611.060000</v>
+        <v>-611.05999999999995</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>57210.082058</v>
@@ -5030,120 +5446,120 @@
         <v>15.891689</v>
       </c>
       <c r="BK19" s="1">
-        <v>1695.360000</v>
+        <v>1695.36</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1050.530000</v>
+        <v>-1050.53</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>57221.306523</v>
+        <v>57221.306522999999</v>
       </c>
       <c r="BO19" s="1">
         <v>15.894807</v>
       </c>
       <c r="BP19" s="1">
-        <v>1993.520000</v>
+        <v>1993.52</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1807.920000</v>
+        <v>-1807.92</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>57232.380206</v>
+        <v>57232.380206000002</v>
       </c>
       <c r="BT19" s="1">
         <v>15.897883</v>
       </c>
       <c r="BU19" s="1">
-        <v>2382.320000</v>
+        <v>2382.3200000000002</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2679.380000</v>
+        <v>-2679.38</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>57243.229198</v>
+        <v>57243.229198000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>15.900897</v>
+        <v>15.900897000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2869.500000</v>
+        <v>2869.5</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3622.860000</v>
+        <v>-3622.86</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>57255.762110</v>
+        <v>57255.762110000003</v>
       </c>
       <c r="CD19" s="1">
-        <v>15.904378</v>
+        <v>15.904377999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>4296.370000</v>
+        <v>4296.37</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5887.690000</v>
+        <v>-5887.69</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>57081.341957</v>
+        <v>57081.341956999997</v>
       </c>
       <c r="B20" s="1">
         <v>15.855928</v>
       </c>
       <c r="C20" s="1">
-        <v>1249.380000</v>
+        <v>1249.3800000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-302.228000</v>
+        <v>-302.22800000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>57091.497543</v>
+        <v>57091.497542999998</v>
       </c>
       <c r="G20" s="1">
         <v>15.858749</v>
       </c>
       <c r="H20" s="1">
-        <v>1273.800000</v>
+        <v>1273.8</v>
       </c>
       <c r="I20" s="1">
-        <v>-261.057000</v>
+        <v>-261.05700000000002</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>57102.514707</v>
+        <v>57102.514707000002</v>
       </c>
       <c r="L20" s="1">
-        <v>15.861810</v>
+        <v>15.86181</v>
       </c>
       <c r="M20" s="1">
-        <v>1307.260000</v>
+        <v>1307.26</v>
       </c>
       <c r="N20" s="1">
-        <v>-200.500000</v>
+        <v>-200.5</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>57113.127578</v>
@@ -5152,300 +5568,300 @@
         <v>15.864758</v>
       </c>
       <c r="R20" s="1">
-        <v>1318.580000</v>
+        <v>1318.58</v>
       </c>
       <c r="S20" s="1">
-        <v>-182.969000</v>
+        <v>-182.96899999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>57123.586222</v>
+        <v>57123.586221999998</v>
       </c>
       <c r="V20" s="1">
         <v>15.867663</v>
       </c>
       <c r="W20" s="1">
-        <v>1331.820000</v>
+        <v>1331.82</v>
       </c>
       <c r="X20" s="1">
-        <v>-170.281000</v>
+        <v>-170.28100000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>57134.117279</v>
+        <v>57134.117278999998</v>
       </c>
       <c r="AA20" s="1">
         <v>15.870588</v>
       </c>
       <c r="AB20" s="1">
-        <v>1348.970000</v>
+        <v>1348.97</v>
       </c>
       <c r="AC20" s="1">
-        <v>-168.820000</v>
+        <v>-168.82</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>57144.610642</v>
       </c>
       <c r="AF20" s="1">
-        <v>15.873503</v>
+        <v>15.873502999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>1362.260000</v>
+        <v>1362.26</v>
       </c>
       <c r="AH20" s="1">
-        <v>-179.031000</v>
+        <v>-179.03100000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>57155.165507</v>
+        <v>57155.165506999998</v>
       </c>
       <c r="AK20" s="1">
-        <v>15.876435</v>
+        <v>15.876435000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1383.390000</v>
+        <v>1383.39</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.381000</v>
+        <v>-209.381</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>57166.149412</v>
+        <v>57166.149411999999</v>
       </c>
       <c r="AP20" s="1">
         <v>15.879486</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1405.640000</v>
+        <v>1405.64</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.314000</v>
+        <v>-253.31399999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>57177.127403</v>
+        <v>57177.127402999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>15.882535</v>
+        <v>15.882535000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1430.940000</v>
+        <v>1430.94</v>
       </c>
       <c r="AW20" s="1">
-        <v>-313.160000</v>
+        <v>-313.16000000000003</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>57188.174264</v>
+        <v>57188.174264000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>15.885604</v>
+        <v>15.885604000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1450.810000</v>
+        <v>1450.81</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.977000</v>
+        <v>-364.97699999999998</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>57199.114056</v>
+        <v>57199.114055999999</v>
       </c>
       <c r="BE20" s="1">
         <v>15.888643</v>
       </c>
       <c r="BF20" s="1">
-        <v>1538.150000</v>
+        <v>1538.15</v>
       </c>
       <c r="BG20" s="1">
-        <v>-611.022000</v>
+        <v>-611.02200000000005</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>57210.453563</v>
+        <v>57210.453563000003</v>
       </c>
       <c r="BJ20" s="1">
         <v>15.891793</v>
       </c>
       <c r="BK20" s="1">
-        <v>1695.400000</v>
+        <v>1695.4</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1050.390000</v>
+        <v>-1050.3900000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>57221.706796</v>
+        <v>57221.706795999999</v>
       </c>
       <c r="BO20" s="1">
         <v>15.894919</v>
       </c>
       <c r="BP20" s="1">
-        <v>1993.700000</v>
+        <v>1993.7</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1807.940000</v>
+        <v>-1807.94</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>57232.809280</v>
+        <v>57232.809280000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>15.898003</v>
+        <v>15.898002999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>2381.950000</v>
+        <v>2381.9499999999998</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2679.300000</v>
+        <v>-2679.3</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>57243.678574</v>
+        <v>57243.678573999998</v>
       </c>
       <c r="BY20" s="1">
-        <v>15.901022</v>
+        <v>15.901021999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2869.390000</v>
+        <v>2869.39</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3623.600000</v>
+        <v>-3623.6</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>57256.274477</v>
+        <v>57256.274476999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>15.904521</v>
+        <v>15.904521000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>4287.830000</v>
+        <v>4287.83</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5873.630000</v>
+        <v>-5873.63</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>57081.992213</v>
+        <v>57081.992212999998</v>
       </c>
       <c r="B21" s="1">
         <v>15.856109</v>
       </c>
       <c r="C21" s="1">
-        <v>1249.350000</v>
+        <v>1249.3499999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-302.669000</v>
+        <v>-302.66899999999998</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>57092.249479</v>
+        <v>57092.249478999998</v>
       </c>
       <c r="G21" s="1">
-        <v>15.858958</v>
+        <v>15.858957999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>1273.830000</v>
+        <v>1273.83</v>
       </c>
       <c r="I21" s="1">
-        <v>-261.028000</v>
+        <v>-261.02800000000002</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>57102.902586</v>
+        <v>57102.902585999997</v>
       </c>
       <c r="L21" s="1">
         <v>15.861917</v>
       </c>
       <c r="M21" s="1">
-        <v>1307.120000</v>
+        <v>1307.1199999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-200.220000</v>
+        <v>-200.22</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>57113.477257</v>
+        <v>57113.477256999999</v>
       </c>
       <c r="Q21" s="1">
         <v>15.864855</v>
       </c>
       <c r="R21" s="1">
-        <v>1318.630000</v>
+        <v>1318.63</v>
       </c>
       <c r="S21" s="1">
-        <v>-182.905000</v>
+        <v>-182.905</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>57123.929452</v>
+        <v>57123.929451999997</v>
       </c>
       <c r="V21" s="1">
         <v>15.867758</v>
       </c>
       <c r="W21" s="1">
-        <v>1331.930000</v>
+        <v>1331.93</v>
       </c>
       <c r="X21" s="1">
-        <v>-170.178000</v>
+        <v>-170.178</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>57134.466996</v>
+        <v>57134.466996000003</v>
       </c>
       <c r="AA21" s="1">
         <v>15.870685</v>
       </c>
       <c r="AB21" s="1">
-        <v>1349.010000</v>
+        <v>1349.01</v>
       </c>
       <c r="AC21" s="1">
-        <v>-168.857000</v>
+        <v>-168.857</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>57145.028801</v>
@@ -5454,73 +5870,73 @@
         <v>15.873619</v>
       </c>
       <c r="AG21" s="1">
-        <v>1362.480000</v>
+        <v>1362.48</v>
       </c>
       <c r="AH21" s="1">
-        <v>-179.134000</v>
+        <v>-179.13399999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>57155.607442</v>
       </c>
       <c r="AK21" s="1">
-        <v>15.876558</v>
+        <v>15.876557999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1383.370000</v>
+        <v>1383.37</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.397000</v>
+        <v>-209.39699999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>57166.445526</v>
+        <v>57166.445526000003</v>
       </c>
       <c r="AP21" s="1">
-        <v>15.879568</v>
+        <v>15.879568000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1405.650000</v>
+        <v>1405.65</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.309000</v>
+        <v>-253.309</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>57177.487958</v>
+        <v>57177.487957999998</v>
       </c>
       <c r="AU21" s="1">
         <v>15.882636</v>
       </c>
       <c r="AV21" s="1">
-        <v>1430.940000</v>
+        <v>1430.94</v>
       </c>
       <c r="AW21" s="1">
-        <v>-313.123000</v>
+        <v>-313.12299999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>57188.531390</v>
+        <v>57188.531389999996</v>
       </c>
       <c r="AZ21" s="1">
-        <v>15.885703</v>
+        <v>15.885702999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1450.780000</v>
+        <v>1450.78</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.978000</v>
+        <v>-364.97800000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>57199.475113</v>
@@ -5529,467 +5945,467 @@
         <v>15.888743</v>
       </c>
       <c r="BF21" s="1">
-        <v>1538.150000</v>
+        <v>1538.15</v>
       </c>
       <c r="BG21" s="1">
-        <v>-611.036000</v>
+        <v>-611.03599999999994</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>57211.204506</v>
+        <v>57211.204506000002</v>
       </c>
       <c r="BJ21" s="1">
         <v>15.892001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1695.160000</v>
+        <v>1695.16</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1050.480000</v>
+        <v>-1050.48</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>57222.527674</v>
+        <v>57222.527673999997</v>
       </c>
       <c r="BO21" s="1">
         <v>15.895147</v>
       </c>
       <c r="BP21" s="1">
-        <v>1993.470000</v>
+        <v>1993.47</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1807.940000</v>
+        <v>-1807.94</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>57233.218941</v>
+        <v>57233.218940999999</v>
       </c>
       <c r="BT21" s="1">
         <v>15.898116</v>
       </c>
       <c r="BU21" s="1">
-        <v>2382.180000</v>
+        <v>2382.1799999999998</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2678.880000</v>
+        <v>-2678.88</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>57244.099712</v>
+        <v>57244.099712000003</v>
       </c>
       <c r="BY21" s="1">
-        <v>15.901139</v>
+        <v>15.901139000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2870.040000</v>
+        <v>2870.04</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3623.680000</v>
+        <v>-3623.68</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>57257.100849</v>
+        <v>57257.100849000002</v>
       </c>
       <c r="CD21" s="1">
-        <v>15.904750</v>
+        <v>15.90475</v>
       </c>
       <c r="CE21" s="1">
-        <v>4275.280000</v>
+        <v>4275.28</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5884.380000</v>
+        <v>-5884.38</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>57082.367187</v>
+        <v>57082.367187000003</v>
       </c>
       <c r="B22" s="1">
         <v>15.856213</v>
       </c>
       <c r="C22" s="1">
-        <v>1249.400000</v>
+        <v>1249.4000000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-302.589000</v>
+        <v>-302.589</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>57092.522787</v>
+        <v>57092.522787000002</v>
       </c>
       <c r="G22" s="1">
-        <v>15.859034</v>
+        <v>15.859033999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1273.180000</v>
+        <v>1273.18</v>
       </c>
       <c r="I22" s="1">
-        <v>-261.945000</v>
+        <v>-261.94499999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>57103.249255</v>
+        <v>57103.249255000002</v>
       </c>
       <c r="L22" s="1">
         <v>15.862014</v>
       </c>
       <c r="M22" s="1">
-        <v>1307.210000</v>
+        <v>1307.21</v>
       </c>
       <c r="N22" s="1">
-        <v>-200.236000</v>
+        <v>-200.23599999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>57113.836361</v>
+        <v>57113.836361000001</v>
       </c>
       <c r="Q22" s="1">
         <v>15.864955</v>
       </c>
       <c r="R22" s="1">
-        <v>1318.680000</v>
+        <v>1318.68</v>
       </c>
       <c r="S22" s="1">
-        <v>-182.892000</v>
+        <v>-182.892</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>57124.287563</v>
+        <v>57124.287562999998</v>
       </c>
       <c r="V22" s="1">
         <v>15.867858</v>
       </c>
       <c r="W22" s="1">
-        <v>1331.660000</v>
+        <v>1331.66</v>
       </c>
       <c r="X22" s="1">
-        <v>-170.173000</v>
+        <v>-170.173</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>57134.896509</v>
+        <v>57134.896508999998</v>
       </c>
       <c r="AA22" s="1">
-        <v>15.870805</v>
+        <v>15.870805000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>1349.180000</v>
+        <v>1349.18</v>
       </c>
       <c r="AC22" s="1">
-        <v>-168.942000</v>
+        <v>-168.94200000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>57145.325872</v>
+        <v>57145.325872000001</v>
       </c>
       <c r="AF22" s="1">
         <v>15.873702</v>
       </c>
       <c r="AG22" s="1">
-        <v>1362.140000</v>
+        <v>1362.14</v>
       </c>
       <c r="AH22" s="1">
-        <v>-179.156000</v>
+        <v>-179.15600000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>57155.872306</v>
+        <v>57155.872305999997</v>
       </c>
       <c r="AK22" s="1">
         <v>15.876631</v>
       </c>
       <c r="AL22" s="1">
-        <v>1383.410000</v>
+        <v>1383.41</v>
       </c>
       <c r="AM22" s="1">
-        <v>-209.395000</v>
+        <v>-209.39500000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>57166.804628</v>
+        <v>57166.804627999998</v>
       </c>
       <c r="AP22" s="1">
-        <v>15.879668</v>
+        <v>15.879668000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1405.640000</v>
+        <v>1405.64</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.331000</v>
+        <v>-253.33099999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>57177.862970</v>
+        <v>57177.862970000002</v>
       </c>
       <c r="AU22" s="1">
-        <v>15.882740</v>
+        <v>15.88274</v>
       </c>
       <c r="AV22" s="1">
-        <v>1430.930000</v>
+        <v>1430.93</v>
       </c>
       <c r="AW22" s="1">
-        <v>-313.175000</v>
+        <v>-313.17500000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>57188.891974</v>
+        <v>57188.891973999998</v>
       </c>
       <c r="AZ22" s="1">
-        <v>15.885803</v>
+        <v>15.885802999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1450.790000</v>
+        <v>1450.79</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.971000</v>
+        <v>-364.971</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>57200.199271</v>
+        <v>57200.199270999998</v>
       </c>
       <c r="BE22" s="1">
         <v>15.888944</v>
       </c>
       <c r="BF22" s="1">
-        <v>1538.160000</v>
+        <v>1538.16</v>
       </c>
       <c r="BG22" s="1">
-        <v>-611.049000</v>
+        <v>-611.04899999999998</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>57211.582458</v>
+        <v>57211.582457999997</v>
       </c>
       <c r="BJ22" s="1">
         <v>15.892106</v>
       </c>
       <c r="BK22" s="1">
-        <v>1695.280000</v>
+        <v>1695.28</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1050.240000</v>
+        <v>-1050.24</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>57222.938894</v>
+        <v>57222.938893999999</v>
       </c>
       <c r="BO22" s="1">
         <v>15.895261</v>
       </c>
       <c r="BP22" s="1">
-        <v>1993.550000</v>
+        <v>1993.55</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1808.010000</v>
+        <v>-1808.01</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>57233.648477</v>
+        <v>57233.648477000002</v>
       </c>
       <c r="BT22" s="1">
-        <v>15.898236</v>
+        <v>15.898236000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>2381.800000</v>
+        <v>2381.8000000000002</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2678.960000</v>
+        <v>-2678.96</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>57244.834781</v>
+        <v>57244.834780999998</v>
       </c>
       <c r="BY22" s="1">
-        <v>15.901343</v>
+        <v>15.901343000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2869.570000</v>
+        <v>2869.57</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3623.050000</v>
+        <v>-3623.05</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>57257.313112</v>
+        <v>57257.313112000003</v>
       </c>
       <c r="CD22" s="1">
         <v>15.904809</v>
       </c>
       <c r="CE22" s="1">
-        <v>4289.140000</v>
+        <v>4289.1400000000003</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5894.070000</v>
+        <v>-5894.07</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>57082.710418</v>
+        <v>57082.710418000002</v>
       </c>
       <c r="B23" s="1">
         <v>15.856308</v>
       </c>
       <c r="C23" s="1">
-        <v>1249.550000</v>
+        <v>1249.55</v>
       </c>
       <c r="D23" s="1">
-        <v>-302.494000</v>
+        <v>-302.49400000000003</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>57092.866998</v>
+        <v>57092.866997999998</v>
       </c>
       <c r="G23" s="1">
-        <v>15.859130</v>
+        <v>15.85913</v>
       </c>
       <c r="H23" s="1">
-        <v>1273.710000</v>
+        <v>1273.71</v>
       </c>
       <c r="I23" s="1">
-        <v>-261.051000</v>
+        <v>-261.05099999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>57103.591495</v>
+        <v>57103.591495000001</v>
       </c>
       <c r="L23" s="1">
         <v>15.862109</v>
       </c>
       <c r="M23" s="1">
-        <v>1307.300000</v>
+        <v>1307.3</v>
       </c>
       <c r="N23" s="1">
-        <v>-200.398000</v>
+        <v>-200.398</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>57114.267385</v>
+        <v>57114.267384999999</v>
       </c>
       <c r="Q23" s="1">
         <v>15.865074</v>
       </c>
       <c r="R23" s="1">
-        <v>1318.730000</v>
+        <v>1318.73</v>
       </c>
       <c r="S23" s="1">
-        <v>-182.975000</v>
+        <v>-182.97499999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>57124.824731</v>
+        <v>57124.824731000001</v>
       </c>
       <c r="V23" s="1">
         <v>15.868007</v>
       </c>
       <c r="W23" s="1">
-        <v>1331.690000</v>
+        <v>1331.69</v>
       </c>
       <c r="X23" s="1">
-        <v>-170.151000</v>
+        <v>-170.15100000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>57135.179245</v>
+        <v>57135.179244999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>15.870883</v>
+        <v>15.870882999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>1349.060000</v>
+        <v>1349.06</v>
       </c>
       <c r="AC23" s="1">
-        <v>-168.875000</v>
+        <v>-168.875</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>57145.665137</v>
+        <v>57145.665137000004</v>
       </c>
       <c r="AF23" s="1">
         <v>15.873796</v>
       </c>
       <c r="AG23" s="1">
-        <v>1362.250000</v>
+        <v>1362.25</v>
       </c>
       <c r="AH23" s="1">
-        <v>-178.964000</v>
+        <v>-178.964</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>57156.218546</v>
+        <v>57156.218545999996</v>
       </c>
       <c r="AK23" s="1">
-        <v>15.876727</v>
+        <v>15.876727000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1383.360000</v>
+        <v>1383.36</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.383000</v>
+        <v>-209.38300000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>57167.169683</v>
@@ -5998,180 +6414,180 @@
         <v>15.879769</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1405.640000</v>
+        <v>1405.64</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.336000</v>
+        <v>-253.33600000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>57178.581668</v>
+        <v>57178.581667999999</v>
       </c>
       <c r="AU23" s="1">
         <v>15.882939</v>
       </c>
       <c r="AV23" s="1">
-        <v>1430.910000</v>
+        <v>1430.91</v>
       </c>
       <c r="AW23" s="1">
-        <v>-313.207000</v>
+        <v>-313.20699999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>57189.607702</v>
+        <v>57189.607702000001</v>
       </c>
       <c r="AZ23" s="1">
         <v>15.886002</v>
       </c>
       <c r="BA23" s="1">
-        <v>1450.740000</v>
+        <v>1450.74</v>
       </c>
       <c r="BB23" s="1">
-        <v>-364.931000</v>
+        <v>-364.93099999999998</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>57200.560390</v>
+        <v>57200.560389999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>15.889045</v>
+        <v>15.889044999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1538.120000</v>
+        <v>1538.12</v>
       </c>
       <c r="BG23" s="1">
-        <v>-611.056000</v>
+        <v>-611.05600000000004</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>57211.954457</v>
       </c>
       <c r="BJ23" s="1">
-        <v>15.892210</v>
+        <v>15.89221</v>
       </c>
       <c r="BK23" s="1">
-        <v>1695.440000</v>
+        <v>1695.44</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1050.490000</v>
+        <v>-1050.49</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>57223.346569</v>
+        <v>57223.346569000001</v>
       </c>
       <c r="BO23" s="1">
         <v>15.895374</v>
       </c>
       <c r="BP23" s="1">
-        <v>1993.400000</v>
+        <v>1993.4</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1807.830000</v>
+        <v>-1807.83</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>57234.393962</v>
+        <v>57234.393962000002</v>
       </c>
       <c r="BT23" s="1">
         <v>15.898443</v>
       </c>
       <c r="BU23" s="1">
-        <v>2382.070000</v>
+        <v>2382.0700000000002</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2678.610000</v>
+        <v>-2678.61</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>57244.950844</v>
+        <v>57244.950843999999</v>
       </c>
       <c r="BY23" s="1">
         <v>15.901375</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2870.760000</v>
+        <v>2870.76</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3623.230000</v>
+        <v>-3623.23</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>57257.832443</v>
+        <v>57257.832442999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>15.904953</v>
+        <v>15.904953000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>4292.500000</v>
+        <v>4292.5</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5891.010000</v>
+        <v>-5891.01</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>57083.055138</v>
+        <v>57083.055138000003</v>
       </c>
       <c r="B24" s="1">
-        <v>15.856404</v>
+        <v>15.856403999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1249.430000</v>
+        <v>1249.43</v>
       </c>
       <c r="D24" s="1">
-        <v>-302.545000</v>
+        <v>-302.54500000000002</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>57093.291077</v>
+        <v>57093.291077000002</v>
       </c>
       <c r="G24" s="1">
-        <v>15.859248</v>
+        <v>15.859247999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1273.280000</v>
+        <v>1273.28</v>
       </c>
       <c r="I24" s="1">
-        <v>-261.003000</v>
+        <v>-261.00299999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>57104.025033</v>
+        <v>57104.025032999998</v>
       </c>
       <c r="L24" s="1">
-        <v>15.862229</v>
+        <v>15.862228999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1307.180000</v>
+        <v>1307.18</v>
       </c>
       <c r="N24" s="1">
-        <v>-200.636000</v>
+        <v>-200.636</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>57114.531292</v>
@@ -6180,88 +6596,88 @@
         <v>15.865148</v>
       </c>
       <c r="R24" s="1">
-        <v>1318.720000</v>
+        <v>1318.72</v>
       </c>
       <c r="S24" s="1">
-        <v>-182.964000</v>
+        <v>-182.964</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>57124.967579</v>
+        <v>57124.967578999996</v>
       </c>
       <c r="V24" s="1">
-        <v>15.868047</v>
+        <v>15.868047000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1331.590000</v>
+        <v>1331.59</v>
       </c>
       <c r="X24" s="1">
-        <v>-170.450000</v>
+        <v>-170.45</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>57135.524428</v>
+        <v>57135.524427999997</v>
       </c>
       <c r="AA24" s="1">
         <v>15.870979</v>
       </c>
       <c r="AB24" s="1">
-        <v>1348.860000</v>
+        <v>1348.86</v>
       </c>
       <c r="AC24" s="1">
-        <v>-168.804000</v>
+        <v>-168.804</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>57146.009395</v>
+        <v>57146.009395000001</v>
       </c>
       <c r="AF24" s="1">
         <v>15.873891</v>
       </c>
       <c r="AG24" s="1">
-        <v>1361.940000</v>
+        <v>1361.94</v>
       </c>
       <c r="AH24" s="1">
-        <v>-179.301000</v>
+        <v>-179.30099999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>57156.566737</v>
+        <v>57156.566737000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>15.876824</v>
+        <v>15.876823999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>1383.370000</v>
+        <v>1383.37</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.398000</v>
+        <v>-209.398</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>57167.890867</v>
+        <v>57167.890867000002</v>
       </c>
       <c r="AP24" s="1">
-        <v>15.879970</v>
+        <v>15.87997</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1405.640000</v>
+        <v>1405.64</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.320000</v>
+        <v>-253.32</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>57178.973973</v>
@@ -6270,88 +6686,88 @@
         <v>15.883048</v>
       </c>
       <c r="AV24" s="1">
-        <v>1430.930000</v>
+        <v>1430.93</v>
       </c>
       <c r="AW24" s="1">
-        <v>-313.183000</v>
+        <v>-313.18299999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>57189.967301</v>
+        <v>57189.967300999997</v>
       </c>
       <c r="AZ24" s="1">
-        <v>15.886102</v>
+        <v>15.886101999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1450.800000</v>
+        <v>1450.8</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.932000</v>
+        <v>-364.93200000000002</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>57200.918981</v>
+        <v>57200.918981000003</v>
       </c>
       <c r="BE24" s="1">
         <v>15.889144</v>
       </c>
       <c r="BF24" s="1">
-        <v>1538.150000</v>
+        <v>1538.15</v>
       </c>
       <c r="BG24" s="1">
-        <v>-611.037000</v>
+        <v>-611.03700000000003</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>57212.643895</v>
+        <v>57212.643895000001</v>
       </c>
       <c r="BJ24" s="1">
         <v>15.892401</v>
       </c>
       <c r="BK24" s="1">
-        <v>1695.220000</v>
+        <v>1695.22</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1050.250000</v>
+        <v>-1050.25</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>57223.782058</v>
+        <v>57223.782057999997</v>
       </c>
       <c r="BO24" s="1">
         <v>15.895495</v>
       </c>
       <c r="BP24" s="1">
-        <v>1993.550000</v>
+        <v>1993.55</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1807.850000</v>
+        <v>-1807.85</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>57234.522460</v>
+        <v>57234.52246</v>
       </c>
       <c r="BT24" s="1">
-        <v>15.898478</v>
+        <v>15.898478000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>2381.670000</v>
+        <v>2381.67</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2678.310000</v>
+        <v>-2678.31</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>57245.394235</v>
@@ -6360,377 +6776,377 @@
         <v>15.901498</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2869.410000</v>
+        <v>2869.41</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3623.120000</v>
+        <v>-3623.12</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>57258.379106</v>
       </c>
       <c r="CD24" s="1">
-        <v>15.905105</v>
+        <v>15.905105000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>4282.350000</v>
+        <v>4282.3500000000004</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5894.220000</v>
+        <v>-5894.22</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>57083.474753</v>
+        <v>57083.474753000002</v>
       </c>
       <c r="B25" s="1">
-        <v>15.856521</v>
+        <v>15.856521000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1249.550000</v>
+        <v>1249.55</v>
       </c>
       <c r="D25" s="1">
-        <v>-302.602000</v>
+        <v>-302.60199999999998</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>57093.569332</v>
+        <v>57093.569331999999</v>
       </c>
       <c r="G25" s="1">
         <v>15.859325</v>
       </c>
       <c r="H25" s="1">
-        <v>1273.320000</v>
+        <v>1273.32</v>
       </c>
       <c r="I25" s="1">
-        <v>-261.788000</v>
+        <v>-261.78800000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>57104.303787</v>
+        <v>57104.303786999997</v>
       </c>
       <c r="L25" s="1">
-        <v>15.862307</v>
+        <v>15.862306999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>1307.270000</v>
+        <v>1307.27</v>
       </c>
       <c r="N25" s="1">
-        <v>-200.424000</v>
+        <v>-200.42400000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>57114.882456</v>
+        <v>57114.882455999999</v>
       </c>
       <c r="Q25" s="1">
         <v>15.865245</v>
       </c>
       <c r="R25" s="1">
-        <v>1318.690000</v>
+        <v>1318.69</v>
       </c>
       <c r="S25" s="1">
-        <v>-183.001000</v>
+        <v>-183.001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>57125.309854</v>
+        <v>57125.309853999999</v>
       </c>
       <c r="V25" s="1">
-        <v>15.868142</v>
+        <v>15.868142000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1331.590000</v>
+        <v>1331.59</v>
       </c>
       <c r="X25" s="1">
-        <v>-170.106000</v>
+        <v>-170.10599999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>57135.876092</v>
+        <v>57135.876091999999</v>
       </c>
       <c r="AA25" s="1">
         <v>15.871077</v>
       </c>
       <c r="AB25" s="1">
-        <v>1349.060000</v>
+        <v>1349.06</v>
       </c>
       <c r="AC25" s="1">
-        <v>-168.937000</v>
+        <v>-168.93700000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>57146.695822</v>
+        <v>57146.695822000001</v>
       </c>
       <c r="AF25" s="1">
         <v>15.874082</v>
       </c>
       <c r="AG25" s="1">
-        <v>1362.410000</v>
+        <v>1362.41</v>
       </c>
       <c r="AH25" s="1">
-        <v>-179.036000</v>
+        <v>-179.036</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>57157.265072</v>
+        <v>57157.265072000002</v>
       </c>
       <c r="AK25" s="1">
         <v>15.877018</v>
       </c>
       <c r="AL25" s="1">
-        <v>1383.380000</v>
+        <v>1383.38</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.390000</v>
+        <v>-209.39</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>57168.248022</v>
       </c>
       <c r="AP25" s="1">
-        <v>15.880069</v>
+        <v>15.880069000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1405.670000</v>
+        <v>1405.67</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.331000</v>
+        <v>-253.33099999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>57179.339031</v>
+        <v>57179.339031000003</v>
       </c>
       <c r="AU25" s="1">
-        <v>15.883150</v>
+        <v>15.883150000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1430.920000</v>
+        <v>1430.92</v>
       </c>
       <c r="AW25" s="1">
-        <v>-313.131000</v>
+        <v>-313.13099999999997</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>57190.327397</v>
+        <v>57190.327397000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>15.886202</v>
+        <v>15.886202000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1450.800000</v>
+        <v>1450.8</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.905000</v>
+        <v>-364.90499999999997</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>57201.600601</v>
+        <v>57201.600600999998</v>
       </c>
       <c r="BE25" s="1">
         <v>15.889334</v>
       </c>
       <c r="BF25" s="1">
-        <v>1538.160000</v>
+        <v>1538.16</v>
       </c>
       <c r="BG25" s="1">
-        <v>-611.043000</v>
+        <v>-611.04300000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>57213.078918</v>
+        <v>57213.078917999999</v>
       </c>
       <c r="BJ25" s="1">
         <v>15.892522</v>
       </c>
       <c r="BK25" s="1">
-        <v>1695.380000</v>
+        <v>1695.38</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1050.270000</v>
+        <v>-1050.27</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>57224.152567</v>
+        <v>57224.152566999997</v>
       </c>
       <c r="BO25" s="1">
         <v>15.895598</v>
       </c>
       <c r="BP25" s="1">
-        <v>1993.530000</v>
+        <v>1993.53</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1807.760000</v>
+        <v>-1807.76</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>57234.936617</v>
+        <v>57234.936616999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>15.898594</v>
+        <v>15.898593999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>2381.550000</v>
+        <v>2381.5500000000002</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2677.960000</v>
+        <v>-2677.96</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>57245.826747</v>
+        <v>57245.826746999999</v>
       </c>
       <c r="BY25" s="1">
         <v>15.901619</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2869.680000</v>
+        <v>2869.68</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3623.650000</v>
+        <v>-3623.65</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>57258.908268</v>
+        <v>57258.908267999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>15.905252</v>
+        <v>15.905252000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>4297.130000</v>
+        <v>4297.13</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5886.130000</v>
+        <v>-5886.13</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>57083.753537</v>
+        <v>57083.753536999997</v>
       </c>
       <c r="B26" s="1">
         <v>15.856598</v>
       </c>
       <c r="C26" s="1">
-        <v>1249.570000</v>
+        <v>1249.57</v>
       </c>
       <c r="D26" s="1">
-        <v>-302.426000</v>
+        <v>-302.42599999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>57093.913575</v>
+        <v>57093.913574999999</v>
       </c>
       <c r="G26" s="1">
-        <v>15.859420</v>
+        <v>15.85942</v>
       </c>
       <c r="H26" s="1">
-        <v>1273.510000</v>
+        <v>1273.51</v>
       </c>
       <c r="I26" s="1">
-        <v>-259.933000</v>
+        <v>-259.93299999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>57104.647479</v>
+        <v>57104.647478999999</v>
       </c>
       <c r="L26" s="1">
-        <v>15.862402</v>
+        <v>15.862401999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1307.400000</v>
+        <v>1307.4000000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-200.155000</v>
+        <v>-200.155</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>57115.228137</v>
+        <v>57115.228136999998</v>
       </c>
       <c r="Q26" s="1">
-        <v>15.865341</v>
+        <v>15.865341000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1318.640000</v>
+        <v>1318.64</v>
       </c>
       <c r="S26" s="1">
-        <v>-182.847000</v>
+        <v>-182.84700000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>57125.998267</v>
+        <v>57125.998267000003</v>
       </c>
       <c r="V26" s="1">
         <v>15.868333</v>
       </c>
       <c r="W26" s="1">
-        <v>1331.870000</v>
+        <v>1331.87</v>
       </c>
       <c r="X26" s="1">
-        <v>-170.234000</v>
+        <v>-170.23400000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>57136.573996</v>
+        <v>57136.573995999999</v>
       </c>
       <c r="AA26" s="1">
         <v>15.871271</v>
       </c>
       <c r="AB26" s="1">
-        <v>1348.970000</v>
+        <v>1348.97</v>
       </c>
       <c r="AC26" s="1">
-        <v>-168.877000</v>
+        <v>-168.87700000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>57147.038771</v>
@@ -6739,165 +7155,166 @@
         <v>15.874177</v>
       </c>
       <c r="AG26" s="1">
-        <v>1362.310000</v>
+        <v>1362.31</v>
       </c>
       <c r="AH26" s="1">
-        <v>-179.039000</v>
+        <v>-179.03899999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>57157.614753</v>
+        <v>57157.614753000002</v>
       </c>
       <c r="AK26" s="1">
         <v>15.877115</v>
       </c>
       <c r="AL26" s="1">
-        <v>1383.370000</v>
+        <v>1383.37</v>
       </c>
       <c r="AM26" s="1">
-        <v>-209.408000</v>
+        <v>-209.40799999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>57168.606626</v>
+        <v>57168.606626000001</v>
       </c>
       <c r="AP26" s="1">
         <v>15.880169</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1405.650000</v>
+        <v>1405.65</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.346000</v>
+        <v>-253.346</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>57180.019293</v>
+        <v>57180.019292999998</v>
       </c>
       <c r="AU26" s="1">
-        <v>15.883339</v>
+        <v>15.883338999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>1430.940000</v>
+        <v>1430.94</v>
       </c>
       <c r="AW26" s="1">
-        <v>-313.131000</v>
+        <v>-313.13099999999997</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>57190.969715</v>
+        <v>57190.969714999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>15.886380</v>
+        <v>15.886380000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1450.780000</v>
+        <v>1450.78</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.945000</v>
+        <v>-364.94499999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>57202.022101</v>
+        <v>57202.022101000002</v>
       </c>
       <c r="BE26" s="1">
-        <v>15.889451</v>
+        <v>15.889450999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1538.140000</v>
+        <v>1538.14</v>
       </c>
       <c r="BG26" s="1">
-        <v>-611.040000</v>
+        <v>-611.04</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>57213.457831</v>
       </c>
       <c r="BJ26" s="1">
-        <v>15.892627</v>
+        <v>15.892626999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1695.280000</v>
+        <v>1695.28</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1050.510000</v>
+        <v>-1050.51</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>57224.571192</v>
+        <v>57224.571192000003</v>
       </c>
       <c r="BO26" s="1">
         <v>15.895714</v>
       </c>
       <c r="BP26" s="1">
-        <v>1993.410000</v>
+        <v>1993.41</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1807.920000</v>
+        <v>-1807.92</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>57235.363643</v>
+        <v>57235.363642999997</v>
       </c>
       <c r="BT26" s="1">
         <v>15.898712</v>
       </c>
       <c r="BU26" s="1">
-        <v>2381.990000</v>
+        <v>2381.9899999999998</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2677.630000</v>
+        <v>-2677.63</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>57246.254298</v>
       </c>
       <c r="BY26" s="1">
-        <v>15.901737</v>
+        <v>15.901737000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2869.700000</v>
+        <v>2869.7</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3623.050000</v>
+        <v>-3623.05</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>57259.426596</v>
+        <v>57259.426595999998</v>
       </c>
       <c r="CD26" s="1">
         <v>15.905396</v>
       </c>
       <c r="CE26" s="1">
-        <v>4287.370000</v>
+        <v>4287.37</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5871.430000</v>
+        <v>-5871.43</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>